--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_取引単体(画面)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_取引単体(画面)_(取引ID)_(取引名).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9324F5AE-9CA4-4F09-8512-1AFEC633DE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7A19A5-7284-474C-871B-28D29DF3B877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="975" windowWidth="21630" windowHeight="13725" tabRatio="445" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="2025" windowWidth="21630" windowHeight="13725" tabRatio="445" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="861">
   <si>
     <t>更新者：</t>
     <rPh sb="0" eb="3">
@@ -9899,16 +9899,6 @@
   </si>
   <si>
     <t>取得した値を編集する処理が分岐する設計となっている場合、本文に設定された値が［システム機能設計書/共通コンポーネント設計書/メール設計書の記載通り］であること。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>システム機能設計書
-共通コンポーネント設計書
-メール設計書</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メール設計書</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -12257,6 +12247,84 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="37" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="39" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="38" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -12363,84 +12431,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="37" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="39" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="38" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13997,55 +13987,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="335" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="311"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="313"/>
-      <c r="L1" s="313"/>
-      <c r="M1" s="313"/>
-      <c r="N1" s="314"/>
-      <c r="O1" s="318" t="s">
+      <c r="B1" s="336"/>
+      <c r="C1" s="336"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="339"/>
+      <c r="G1" s="339"/>
+      <c r="H1" s="339"/>
+      <c r="I1" s="339"/>
+      <c r="J1" s="339"/>
+      <c r="K1" s="339"/>
+      <c r="L1" s="339"/>
+      <c r="M1" s="339"/>
+      <c r="N1" s="340"/>
+      <c r="O1" s="344" t="s">
         <v>151</v>
       </c>
-      <c r="P1" s="319"/>
-      <c r="Q1" s="319"/>
-      <c r="R1" s="320"/>
-      <c r="S1" s="327" t="s">
+      <c r="P1" s="345"/>
+      <c r="Q1" s="345"/>
+      <c r="R1" s="346"/>
+      <c r="S1" s="353" t="s">
         <v>169</v>
       </c>
-      <c r="T1" s="328"/>
-      <c r="U1" s="328"/>
-      <c r="V1" s="328"/>
-      <c r="W1" s="328"/>
-      <c r="X1" s="328"/>
-      <c r="Y1" s="328"/>
-      <c r="Z1" s="329"/>
-      <c r="AA1" s="309" t="s">
+      <c r="T1" s="354"/>
+      <c r="U1" s="354"/>
+      <c r="V1" s="354"/>
+      <c r="W1" s="354"/>
+      <c r="X1" s="354"/>
+      <c r="Y1" s="354"/>
+      <c r="Z1" s="355"/>
+      <c r="AA1" s="335" t="s">
         <v>152</v>
       </c>
-      <c r="AB1" s="311"/>
-      <c r="AC1" s="336" t="str">
+      <c r="AB1" s="337"/>
+      <c r="AC1" s="362" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="337"/>
-      <c r="AE1" s="337"/>
-      <c r="AF1" s="338"/>
-      <c r="AG1" s="303">
+      <c r="AD1" s="363"/>
+      <c r="AE1" s="363"/>
+      <c r="AF1" s="364"/>
+      <c r="AG1" s="329">
         <f>IF(D8="","",D8)</f>
         <v>44792</v>
       </c>
-      <c r="AH1" s="304"/>
-      <c r="AI1" s="305"/>
+      <c r="AH1" s="330"/>
+      <c r="AI1" s="331"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -14053,51 +14043,51 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="335" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="310"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="311"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="313"/>
-      <c r="L2" s="313"/>
-      <c r="M2" s="313"/>
-      <c r="N2" s="314"/>
-      <c r="O2" s="321"/>
-      <c r="P2" s="322"/>
-      <c r="Q2" s="322"/>
-      <c r="R2" s="323"/>
-      <c r="S2" s="330"/>
-      <c r="T2" s="331"/>
-      <c r="U2" s="331"/>
-      <c r="V2" s="331"/>
-      <c r="W2" s="331"/>
-      <c r="X2" s="331"/>
-      <c r="Y2" s="331"/>
-      <c r="Z2" s="332"/>
-      <c r="AA2" s="309" t="s">
+      <c r="B2" s="336"/>
+      <c r="C2" s="336"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="338"/>
+      <c r="F2" s="339"/>
+      <c r="G2" s="339"/>
+      <c r="H2" s="339"/>
+      <c r="I2" s="339"/>
+      <c r="J2" s="339"/>
+      <c r="K2" s="339"/>
+      <c r="L2" s="339"/>
+      <c r="M2" s="339"/>
+      <c r="N2" s="340"/>
+      <c r="O2" s="347"/>
+      <c r="P2" s="348"/>
+      <c r="Q2" s="348"/>
+      <c r="R2" s="349"/>
+      <c r="S2" s="356"/>
+      <c r="T2" s="357"/>
+      <c r="U2" s="357"/>
+      <c r="V2" s="357"/>
+      <c r="W2" s="357"/>
+      <c r="X2" s="357"/>
+      <c r="Y2" s="357"/>
+      <c r="Z2" s="358"/>
+      <c r="AA2" s="335" t="s">
         <v>154</v>
       </c>
-      <c r="AB2" s="311"/>
-      <c r="AC2" s="315" t="str">
+      <c r="AB2" s="337"/>
+      <c r="AC2" s="341" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="316"/>
-      <c r="AE2" s="316"/>
-      <c r="AF2" s="317"/>
-      <c r="AG2" s="303" t="str">
+      <c r="AD2" s="342"/>
+      <c r="AE2" s="342"/>
+      <c r="AF2" s="343"/>
+      <c r="AG2" s="329" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="304"/>
-      <c r="AI2" s="305"/>
+      <c r="AH2" s="330"/>
+      <c r="AI2" s="331"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -14105,43 +14095,43 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="309" t="s">
+      <c r="A3" s="335" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="310"/>
-      <c r="C3" s="310"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
-      <c r="G3" s="313"/>
-      <c r="H3" s="313"/>
-      <c r="I3" s="313"/>
-      <c r="J3" s="313"/>
-      <c r="K3" s="313"/>
-      <c r="L3" s="313"/>
-      <c r="M3" s="313"/>
-      <c r="N3" s="314"/>
-      <c r="O3" s="324"/>
-      <c r="P3" s="325"/>
-      <c r="Q3" s="325"/>
-      <c r="R3" s="326"/>
-      <c r="S3" s="333"/>
-      <c r="T3" s="334"/>
-      <c r="U3" s="334"/>
-      <c r="V3" s="334"/>
-      <c r="W3" s="334"/>
-      <c r="X3" s="334"/>
-      <c r="Y3" s="334"/>
-      <c r="Z3" s="335"/>
-      <c r="AA3" s="309"/>
-      <c r="AB3" s="311"/>
-      <c r="AC3" s="336"/>
-      <c r="AD3" s="337"/>
-      <c r="AE3" s="337"/>
-      <c r="AF3" s="338"/>
-      <c r="AG3" s="303"/>
-      <c r="AH3" s="304"/>
-      <c r="AI3" s="305"/>
+      <c r="B3" s="336"/>
+      <c r="C3" s="336"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="338"/>
+      <c r="F3" s="339"/>
+      <c r="G3" s="339"/>
+      <c r="H3" s="339"/>
+      <c r="I3" s="339"/>
+      <c r="J3" s="339"/>
+      <c r="K3" s="339"/>
+      <c r="L3" s="339"/>
+      <c r="M3" s="339"/>
+      <c r="N3" s="340"/>
+      <c r="O3" s="350"/>
+      <c r="P3" s="351"/>
+      <c r="Q3" s="351"/>
+      <c r="R3" s="352"/>
+      <c r="S3" s="359"/>
+      <c r="T3" s="360"/>
+      <c r="U3" s="360"/>
+      <c r="V3" s="360"/>
+      <c r="W3" s="360"/>
+      <c r="X3" s="360"/>
+      <c r="Y3" s="360"/>
+      <c r="Z3" s="361"/>
+      <c r="AA3" s="335"/>
+      <c r="AB3" s="337"/>
+      <c r="AC3" s="362"/>
+      <c r="AD3" s="363"/>
+      <c r="AE3" s="363"/>
+      <c r="AF3" s="364"/>
+      <c r="AG3" s="329"/>
+      <c r="AH3" s="330"/>
+      <c r="AI3" s="331"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -14178,1188 +14168,1032 @@
       <c r="A7" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="306" t="s">
+      <c r="B7" s="332" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="307"/>
-      <c r="D7" s="306" t="s">
+      <c r="C7" s="333"/>
+      <c r="D7" s="332" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="308"/>
-      <c r="F7" s="307"/>
-      <c r="G7" s="306" t="s">
+      <c r="E7" s="334"/>
+      <c r="F7" s="333"/>
+      <c r="G7" s="332" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="308"/>
-      <c r="I7" s="307"/>
-      <c r="J7" s="306" t="s">
+      <c r="H7" s="334"/>
+      <c r="I7" s="333"/>
+      <c r="J7" s="332" t="s">
         <v>160</v>
       </c>
-      <c r="K7" s="308"/>
-      <c r="L7" s="308"/>
-      <c r="M7" s="308"/>
-      <c r="N7" s="308"/>
-      <c r="O7" s="308"/>
-      <c r="P7" s="307"/>
-      <c r="Q7" s="306" t="s">
+      <c r="K7" s="334"/>
+      <c r="L7" s="334"/>
+      <c r="M7" s="334"/>
+      <c r="N7" s="334"/>
+      <c r="O7" s="334"/>
+      <c r="P7" s="333"/>
+      <c r="Q7" s="332" t="s">
         <v>161</v>
       </c>
-      <c r="R7" s="308"/>
-      <c r="S7" s="308"/>
-      <c r="T7" s="308"/>
-      <c r="U7" s="308"/>
-      <c r="V7" s="308"/>
-      <c r="W7" s="308"/>
-      <c r="X7" s="308"/>
-      <c r="Y7" s="308"/>
-      <c r="Z7" s="308"/>
-      <c r="AA7" s="308"/>
-      <c r="AB7" s="308"/>
-      <c r="AC7" s="308"/>
-      <c r="AD7" s="308"/>
-      <c r="AE7" s="307"/>
-      <c r="AF7" s="306" t="s">
+      <c r="R7" s="334"/>
+      <c r="S7" s="334"/>
+      <c r="T7" s="334"/>
+      <c r="U7" s="334"/>
+      <c r="V7" s="334"/>
+      <c r="W7" s="334"/>
+      <c r="X7" s="334"/>
+      <c r="Y7" s="334"/>
+      <c r="Z7" s="334"/>
+      <c r="AA7" s="334"/>
+      <c r="AB7" s="334"/>
+      <c r="AC7" s="334"/>
+      <c r="AD7" s="334"/>
+      <c r="AE7" s="333"/>
+      <c r="AF7" s="332" t="s">
         <v>162</v>
       </c>
-      <c r="AG7" s="308"/>
-      <c r="AH7" s="308"/>
-      <c r="AI7" s="307"/>
+      <c r="AG7" s="334"/>
+      <c r="AH7" s="334"/>
+      <c r="AI7" s="333"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="351" t="s">
+      <c r="B8" s="316" t="s">
         <v>341</v>
       </c>
-      <c r="C8" s="352"/>
-      <c r="D8" s="353">
+      <c r="C8" s="317"/>
+      <c r="D8" s="318">
         <v>44792</v>
       </c>
-      <c r="E8" s="354"/>
-      <c r="F8" s="355"/>
-      <c r="G8" s="356" t="s">
+      <c r="E8" s="319"/>
+      <c r="F8" s="320"/>
+      <c r="G8" s="321" t="s">
         <v>342</v>
       </c>
-      <c r="H8" s="357"/>
-      <c r="I8" s="352"/>
-      <c r="J8" s="358"/>
-      <c r="K8" s="359"/>
-      <c r="L8" s="359"/>
-      <c r="M8" s="359"/>
-      <c r="N8" s="359"/>
-      <c r="O8" s="359"/>
-      <c r="P8" s="360"/>
-      <c r="Q8" s="361" t="s">
+      <c r="H8" s="322"/>
+      <c r="I8" s="317"/>
+      <c r="J8" s="323"/>
+      <c r="K8" s="324"/>
+      <c r="L8" s="324"/>
+      <c r="M8" s="324"/>
+      <c r="N8" s="324"/>
+      <c r="O8" s="324"/>
+      <c r="P8" s="325"/>
+      <c r="Q8" s="326" t="s">
         <v>343</v>
       </c>
-      <c r="R8" s="362"/>
-      <c r="S8" s="362"/>
-      <c r="T8" s="362"/>
-      <c r="U8" s="362"/>
-      <c r="V8" s="362"/>
-      <c r="W8" s="362"/>
-      <c r="X8" s="362"/>
-      <c r="Y8" s="362"/>
-      <c r="Z8" s="362"/>
-      <c r="AA8" s="362"/>
-      <c r="AB8" s="362"/>
-      <c r="AC8" s="362"/>
-      <c r="AD8" s="362"/>
-      <c r="AE8" s="363"/>
-      <c r="AF8" s="358" t="s">
+      <c r="R8" s="327"/>
+      <c r="S8" s="327"/>
+      <c r="T8" s="327"/>
+      <c r="U8" s="327"/>
+      <c r="V8" s="327"/>
+      <c r="W8" s="327"/>
+      <c r="X8" s="327"/>
+      <c r="Y8" s="327"/>
+      <c r="Z8" s="327"/>
+      <c r="AA8" s="327"/>
+      <c r="AB8" s="327"/>
+      <c r="AC8" s="327"/>
+      <c r="AD8" s="327"/>
+      <c r="AE8" s="328"/>
+      <c r="AF8" s="323" t="s">
         <v>344</v>
       </c>
-      <c r="AG8" s="359"/>
-      <c r="AH8" s="359"/>
-      <c r="AI8" s="360"/>
+      <c r="AG8" s="324"/>
+      <c r="AH8" s="324"/>
+      <c r="AI8" s="325"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="339"/>
-      <c r="C9" s="340"/>
-      <c r="D9" s="341"/>
-      <c r="E9" s="342"/>
-      <c r="F9" s="343"/>
-      <c r="G9" s="341"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="340"/>
-      <c r="J9" s="345"/>
-      <c r="K9" s="346"/>
-      <c r="L9" s="346"/>
-      <c r="M9" s="346"/>
-      <c r="N9" s="346"/>
-      <c r="O9" s="346"/>
-      <c r="P9" s="347"/>
-      <c r="Q9" s="348"/>
-      <c r="R9" s="349"/>
-      <c r="S9" s="349"/>
-      <c r="T9" s="349"/>
-      <c r="U9" s="349"/>
-      <c r="V9" s="349"/>
-      <c r="W9" s="349"/>
-      <c r="X9" s="349"/>
-      <c r="Y9" s="349"/>
-      <c r="Z9" s="349"/>
-      <c r="AA9" s="349"/>
-      <c r="AB9" s="349"/>
-      <c r="AC9" s="349"/>
-      <c r="AD9" s="349"/>
-      <c r="AE9" s="350"/>
-      <c r="AF9" s="345"/>
-      <c r="AG9" s="346"/>
-      <c r="AH9" s="346"/>
-      <c r="AI9" s="347"/>
+      <c r="B9" s="303"/>
+      <c r="C9" s="304"/>
+      <c r="D9" s="305"/>
+      <c r="E9" s="306"/>
+      <c r="F9" s="307"/>
+      <c r="G9" s="305"/>
+      <c r="H9" s="308"/>
+      <c r="I9" s="304"/>
+      <c r="J9" s="309"/>
+      <c r="K9" s="310"/>
+      <c r="L9" s="310"/>
+      <c r="M9" s="310"/>
+      <c r="N9" s="310"/>
+      <c r="O9" s="310"/>
+      <c r="P9" s="311"/>
+      <c r="Q9" s="312"/>
+      <c r="R9" s="313"/>
+      <c r="S9" s="313"/>
+      <c r="T9" s="313"/>
+      <c r="U9" s="313"/>
+      <c r="V9" s="313"/>
+      <c r="W9" s="313"/>
+      <c r="X9" s="313"/>
+      <c r="Y9" s="313"/>
+      <c r="Z9" s="313"/>
+      <c r="AA9" s="313"/>
+      <c r="AB9" s="313"/>
+      <c r="AC9" s="313"/>
+      <c r="AD9" s="313"/>
+      <c r="AE9" s="314"/>
+      <c r="AF9" s="309"/>
+      <c r="AG9" s="310"/>
+      <c r="AH9" s="310"/>
+      <c r="AI9" s="311"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="339"/>
-      <c r="C10" s="340"/>
-      <c r="D10" s="341"/>
-      <c r="E10" s="342"/>
-      <c r="F10" s="343"/>
-      <c r="G10" s="339"/>
-      <c r="H10" s="344"/>
-      <c r="I10" s="340"/>
-      <c r="J10" s="345"/>
-      <c r="K10" s="346"/>
-      <c r="L10" s="346"/>
-      <c r="M10" s="346"/>
-      <c r="N10" s="346"/>
-      <c r="O10" s="346"/>
-      <c r="P10" s="347"/>
-      <c r="Q10" s="348"/>
-      <c r="R10" s="349"/>
-      <c r="S10" s="349"/>
-      <c r="T10" s="349"/>
-      <c r="U10" s="349"/>
-      <c r="V10" s="349"/>
-      <c r="W10" s="349"/>
-      <c r="X10" s="349"/>
-      <c r="Y10" s="349"/>
-      <c r="Z10" s="349"/>
-      <c r="AA10" s="349"/>
-      <c r="AB10" s="349"/>
-      <c r="AC10" s="349"/>
-      <c r="AD10" s="349"/>
-      <c r="AE10" s="350"/>
-      <c r="AF10" s="345"/>
-      <c r="AG10" s="346"/>
-      <c r="AH10" s="346"/>
-      <c r="AI10" s="347"/>
+      <c r="B10" s="303"/>
+      <c r="C10" s="304"/>
+      <c r="D10" s="305"/>
+      <c r="E10" s="306"/>
+      <c r="F10" s="307"/>
+      <c r="G10" s="303"/>
+      <c r="H10" s="308"/>
+      <c r="I10" s="304"/>
+      <c r="J10" s="309"/>
+      <c r="K10" s="310"/>
+      <c r="L10" s="310"/>
+      <c r="M10" s="310"/>
+      <c r="N10" s="310"/>
+      <c r="O10" s="310"/>
+      <c r="P10" s="311"/>
+      <c r="Q10" s="312"/>
+      <c r="R10" s="313"/>
+      <c r="S10" s="313"/>
+      <c r="T10" s="313"/>
+      <c r="U10" s="313"/>
+      <c r="V10" s="313"/>
+      <c r="W10" s="313"/>
+      <c r="X10" s="313"/>
+      <c r="Y10" s="313"/>
+      <c r="Z10" s="313"/>
+      <c r="AA10" s="313"/>
+      <c r="AB10" s="313"/>
+      <c r="AC10" s="313"/>
+      <c r="AD10" s="313"/>
+      <c r="AE10" s="314"/>
+      <c r="AF10" s="309"/>
+      <c r="AG10" s="310"/>
+      <c r="AH10" s="310"/>
+      <c r="AI10" s="311"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="339"/>
-      <c r="C11" s="340"/>
-      <c r="D11" s="341"/>
-      <c r="E11" s="342"/>
-      <c r="F11" s="343"/>
-      <c r="G11" s="339"/>
-      <c r="H11" s="344"/>
-      <c r="I11" s="340"/>
-      <c r="J11" s="345"/>
-      <c r="K11" s="346"/>
-      <c r="L11" s="346"/>
-      <c r="M11" s="346"/>
-      <c r="N11" s="346"/>
-      <c r="O11" s="346"/>
-      <c r="P11" s="347"/>
-      <c r="Q11" s="348"/>
-      <c r="R11" s="349"/>
-      <c r="S11" s="349"/>
-      <c r="T11" s="349"/>
-      <c r="U11" s="349"/>
-      <c r="V11" s="349"/>
-      <c r="W11" s="349"/>
-      <c r="X11" s="349"/>
-      <c r="Y11" s="349"/>
-      <c r="Z11" s="349"/>
-      <c r="AA11" s="349"/>
-      <c r="AB11" s="349"/>
-      <c r="AC11" s="349"/>
-      <c r="AD11" s="349"/>
-      <c r="AE11" s="350"/>
-      <c r="AF11" s="345"/>
-      <c r="AG11" s="346"/>
-      <c r="AH11" s="346"/>
-      <c r="AI11" s="347"/>
+      <c r="B11" s="303"/>
+      <c r="C11" s="304"/>
+      <c r="D11" s="305"/>
+      <c r="E11" s="306"/>
+      <c r="F11" s="307"/>
+      <c r="G11" s="303"/>
+      <c r="H11" s="308"/>
+      <c r="I11" s="304"/>
+      <c r="J11" s="309"/>
+      <c r="K11" s="310"/>
+      <c r="L11" s="310"/>
+      <c r="M11" s="310"/>
+      <c r="N11" s="310"/>
+      <c r="O11" s="310"/>
+      <c r="P11" s="311"/>
+      <c r="Q11" s="312"/>
+      <c r="R11" s="313"/>
+      <c r="S11" s="313"/>
+      <c r="T11" s="313"/>
+      <c r="U11" s="313"/>
+      <c r="V11" s="313"/>
+      <c r="W11" s="313"/>
+      <c r="X11" s="313"/>
+      <c r="Y11" s="313"/>
+      <c r="Z11" s="313"/>
+      <c r="AA11" s="313"/>
+      <c r="AB11" s="313"/>
+      <c r="AC11" s="313"/>
+      <c r="AD11" s="313"/>
+      <c r="AE11" s="314"/>
+      <c r="AF11" s="309"/>
+      <c r="AG11" s="310"/>
+      <c r="AH11" s="310"/>
+      <c r="AI11" s="311"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="339"/>
-      <c r="C12" s="340"/>
-      <c r="D12" s="341"/>
-      <c r="E12" s="342"/>
-      <c r="F12" s="343"/>
-      <c r="G12" s="339"/>
-      <c r="H12" s="344"/>
-      <c r="I12" s="340"/>
-      <c r="J12" s="345"/>
-      <c r="K12" s="346"/>
-      <c r="L12" s="346"/>
-      <c r="M12" s="346"/>
-      <c r="N12" s="346"/>
-      <c r="O12" s="346"/>
-      <c r="P12" s="347"/>
-      <c r="Q12" s="348"/>
-      <c r="R12" s="349"/>
-      <c r="S12" s="349"/>
-      <c r="T12" s="349"/>
-      <c r="U12" s="349"/>
-      <c r="V12" s="349"/>
-      <c r="W12" s="349"/>
-      <c r="X12" s="349"/>
-      <c r="Y12" s="349"/>
-      <c r="Z12" s="349"/>
-      <c r="AA12" s="349"/>
-      <c r="AB12" s="349"/>
-      <c r="AC12" s="349"/>
-      <c r="AD12" s="349"/>
-      <c r="AE12" s="350"/>
-      <c r="AF12" s="345"/>
-      <c r="AG12" s="346"/>
-      <c r="AH12" s="346"/>
-      <c r="AI12" s="347"/>
+      <c r="B12" s="303"/>
+      <c r="C12" s="304"/>
+      <c r="D12" s="305"/>
+      <c r="E12" s="306"/>
+      <c r="F12" s="307"/>
+      <c r="G12" s="303"/>
+      <c r="H12" s="308"/>
+      <c r="I12" s="304"/>
+      <c r="J12" s="309"/>
+      <c r="K12" s="310"/>
+      <c r="L12" s="310"/>
+      <c r="M12" s="310"/>
+      <c r="N12" s="310"/>
+      <c r="O12" s="310"/>
+      <c r="P12" s="311"/>
+      <c r="Q12" s="312"/>
+      <c r="R12" s="313"/>
+      <c r="S12" s="313"/>
+      <c r="T12" s="313"/>
+      <c r="U12" s="313"/>
+      <c r="V12" s="313"/>
+      <c r="W12" s="313"/>
+      <c r="X12" s="313"/>
+      <c r="Y12" s="313"/>
+      <c r="Z12" s="313"/>
+      <c r="AA12" s="313"/>
+      <c r="AB12" s="313"/>
+      <c r="AC12" s="313"/>
+      <c r="AD12" s="313"/>
+      <c r="AE12" s="314"/>
+      <c r="AF12" s="309"/>
+      <c r="AG12" s="310"/>
+      <c r="AH12" s="310"/>
+      <c r="AI12" s="311"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="339"/>
-      <c r="C13" s="340"/>
-      <c r="D13" s="341"/>
-      <c r="E13" s="342"/>
-      <c r="F13" s="343"/>
-      <c r="G13" s="339"/>
-      <c r="H13" s="344"/>
-      <c r="I13" s="340"/>
-      <c r="J13" s="345"/>
-      <c r="K13" s="346"/>
-      <c r="L13" s="346"/>
-      <c r="M13" s="346"/>
-      <c r="N13" s="346"/>
-      <c r="O13" s="346"/>
-      <c r="P13" s="347"/>
-      <c r="Q13" s="348"/>
-      <c r="R13" s="349"/>
-      <c r="S13" s="349"/>
-      <c r="T13" s="349"/>
-      <c r="U13" s="349"/>
-      <c r="V13" s="349"/>
-      <c r="W13" s="349"/>
-      <c r="X13" s="349"/>
-      <c r="Y13" s="349"/>
-      <c r="Z13" s="349"/>
-      <c r="AA13" s="349"/>
-      <c r="AB13" s="349"/>
-      <c r="AC13" s="349"/>
-      <c r="AD13" s="349"/>
-      <c r="AE13" s="350"/>
-      <c r="AF13" s="345"/>
-      <c r="AG13" s="346"/>
-      <c r="AH13" s="346"/>
-      <c r="AI13" s="347"/>
+      <c r="B13" s="303"/>
+      <c r="C13" s="304"/>
+      <c r="D13" s="305"/>
+      <c r="E13" s="306"/>
+      <c r="F13" s="307"/>
+      <c r="G13" s="303"/>
+      <c r="H13" s="308"/>
+      <c r="I13" s="304"/>
+      <c r="J13" s="309"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="310"/>
+      <c r="M13" s="310"/>
+      <c r="N13" s="310"/>
+      <c r="O13" s="310"/>
+      <c r="P13" s="311"/>
+      <c r="Q13" s="312"/>
+      <c r="R13" s="313"/>
+      <c r="S13" s="313"/>
+      <c r="T13" s="313"/>
+      <c r="U13" s="313"/>
+      <c r="V13" s="313"/>
+      <c r="W13" s="313"/>
+      <c r="X13" s="313"/>
+      <c r="Y13" s="313"/>
+      <c r="Z13" s="313"/>
+      <c r="AA13" s="313"/>
+      <c r="AB13" s="313"/>
+      <c r="AC13" s="313"/>
+      <c r="AD13" s="313"/>
+      <c r="AE13" s="314"/>
+      <c r="AF13" s="309"/>
+      <c r="AG13" s="310"/>
+      <c r="AH13" s="310"/>
+      <c r="AI13" s="311"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="339"/>
-      <c r="C14" s="340"/>
-      <c r="D14" s="341"/>
-      <c r="E14" s="342"/>
-      <c r="F14" s="343"/>
-      <c r="G14" s="339"/>
-      <c r="H14" s="344"/>
-      <c r="I14" s="340"/>
-      <c r="J14" s="345"/>
-      <c r="K14" s="346"/>
-      <c r="L14" s="346"/>
-      <c r="M14" s="346"/>
-      <c r="N14" s="346"/>
-      <c r="O14" s="346"/>
-      <c r="P14" s="347"/>
-      <c r="Q14" s="348"/>
-      <c r="R14" s="349"/>
-      <c r="S14" s="349"/>
-      <c r="T14" s="349"/>
-      <c r="U14" s="349"/>
-      <c r="V14" s="349"/>
-      <c r="W14" s="349"/>
-      <c r="X14" s="349"/>
-      <c r="Y14" s="349"/>
-      <c r="Z14" s="349"/>
-      <c r="AA14" s="349"/>
-      <c r="AB14" s="349"/>
-      <c r="AC14" s="349"/>
-      <c r="AD14" s="349"/>
-      <c r="AE14" s="350"/>
-      <c r="AF14" s="345"/>
-      <c r="AG14" s="346"/>
-      <c r="AH14" s="346"/>
-      <c r="AI14" s="347"/>
+      <c r="B14" s="303"/>
+      <c r="C14" s="304"/>
+      <c r="D14" s="305"/>
+      <c r="E14" s="306"/>
+      <c r="F14" s="307"/>
+      <c r="G14" s="303"/>
+      <c r="H14" s="308"/>
+      <c r="I14" s="304"/>
+      <c r="J14" s="309"/>
+      <c r="K14" s="310"/>
+      <c r="L14" s="310"/>
+      <c r="M14" s="310"/>
+      <c r="N14" s="310"/>
+      <c r="O14" s="310"/>
+      <c r="P14" s="311"/>
+      <c r="Q14" s="312"/>
+      <c r="R14" s="313"/>
+      <c r="S14" s="313"/>
+      <c r="T14" s="313"/>
+      <c r="U14" s="313"/>
+      <c r="V14" s="313"/>
+      <c r="W14" s="313"/>
+      <c r="X14" s="313"/>
+      <c r="Y14" s="313"/>
+      <c r="Z14" s="313"/>
+      <c r="AA14" s="313"/>
+      <c r="AB14" s="313"/>
+      <c r="AC14" s="313"/>
+      <c r="AD14" s="313"/>
+      <c r="AE14" s="314"/>
+      <c r="AF14" s="309"/>
+      <c r="AG14" s="310"/>
+      <c r="AH14" s="310"/>
+      <c r="AI14" s="311"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="339"/>
-      <c r="C15" s="340"/>
-      <c r="D15" s="341"/>
-      <c r="E15" s="342"/>
-      <c r="F15" s="343"/>
-      <c r="G15" s="339"/>
-      <c r="H15" s="344"/>
-      <c r="I15" s="340"/>
-      <c r="J15" s="345"/>
-      <c r="K15" s="346"/>
-      <c r="L15" s="346"/>
-      <c r="M15" s="346"/>
-      <c r="N15" s="346"/>
-      <c r="O15" s="346"/>
-      <c r="P15" s="347"/>
-      <c r="Q15" s="348"/>
-      <c r="R15" s="349"/>
-      <c r="S15" s="349"/>
-      <c r="T15" s="349"/>
-      <c r="U15" s="349"/>
-      <c r="V15" s="349"/>
-      <c r="W15" s="349"/>
-      <c r="X15" s="349"/>
-      <c r="Y15" s="349"/>
-      <c r="Z15" s="349"/>
-      <c r="AA15" s="349"/>
-      <c r="AB15" s="349"/>
-      <c r="AC15" s="349"/>
-      <c r="AD15" s="349"/>
-      <c r="AE15" s="350"/>
-      <c r="AF15" s="345"/>
-      <c r="AG15" s="346"/>
-      <c r="AH15" s="346"/>
-      <c r="AI15" s="347"/>
+      <c r="B15" s="303"/>
+      <c r="C15" s="304"/>
+      <c r="D15" s="305"/>
+      <c r="E15" s="306"/>
+      <c r="F15" s="307"/>
+      <c r="G15" s="303"/>
+      <c r="H15" s="308"/>
+      <c r="I15" s="304"/>
+      <c r="J15" s="309"/>
+      <c r="K15" s="310"/>
+      <c r="L15" s="310"/>
+      <c r="M15" s="310"/>
+      <c r="N15" s="310"/>
+      <c r="O15" s="310"/>
+      <c r="P15" s="311"/>
+      <c r="Q15" s="312"/>
+      <c r="R15" s="313"/>
+      <c r="S15" s="313"/>
+      <c r="T15" s="313"/>
+      <c r="U15" s="313"/>
+      <c r="V15" s="313"/>
+      <c r="W15" s="313"/>
+      <c r="X15" s="313"/>
+      <c r="Y15" s="313"/>
+      <c r="Z15" s="313"/>
+      <c r="AA15" s="313"/>
+      <c r="AB15" s="313"/>
+      <c r="AC15" s="313"/>
+      <c r="AD15" s="313"/>
+      <c r="AE15" s="314"/>
+      <c r="AF15" s="309"/>
+      <c r="AG15" s="310"/>
+      <c r="AH15" s="310"/>
+      <c r="AI15" s="311"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="339"/>
-      <c r="C16" s="340"/>
-      <c r="D16" s="341"/>
-      <c r="E16" s="342"/>
-      <c r="F16" s="343"/>
-      <c r="G16" s="339"/>
-      <c r="H16" s="344"/>
-      <c r="I16" s="340"/>
-      <c r="J16" s="345"/>
-      <c r="K16" s="346"/>
-      <c r="L16" s="346"/>
-      <c r="M16" s="346"/>
-      <c r="N16" s="346"/>
-      <c r="O16" s="346"/>
-      <c r="P16" s="347"/>
-      <c r="Q16" s="348"/>
-      <c r="R16" s="349"/>
-      <c r="S16" s="349"/>
-      <c r="T16" s="349"/>
-      <c r="U16" s="349"/>
-      <c r="V16" s="349"/>
-      <c r="W16" s="349"/>
-      <c r="X16" s="349"/>
-      <c r="Y16" s="349"/>
-      <c r="Z16" s="349"/>
-      <c r="AA16" s="349"/>
-      <c r="AB16" s="349"/>
-      <c r="AC16" s="349"/>
-      <c r="AD16" s="349"/>
-      <c r="AE16" s="350"/>
-      <c r="AF16" s="345"/>
-      <c r="AG16" s="346"/>
-      <c r="AH16" s="346"/>
-      <c r="AI16" s="347"/>
+      <c r="B16" s="303"/>
+      <c r="C16" s="304"/>
+      <c r="D16" s="305"/>
+      <c r="E16" s="306"/>
+      <c r="F16" s="307"/>
+      <c r="G16" s="303"/>
+      <c r="H16" s="308"/>
+      <c r="I16" s="304"/>
+      <c r="J16" s="309"/>
+      <c r="K16" s="310"/>
+      <c r="L16" s="310"/>
+      <c r="M16" s="310"/>
+      <c r="N16" s="310"/>
+      <c r="O16" s="310"/>
+      <c r="P16" s="311"/>
+      <c r="Q16" s="312"/>
+      <c r="R16" s="313"/>
+      <c r="S16" s="313"/>
+      <c r="T16" s="313"/>
+      <c r="U16" s="313"/>
+      <c r="V16" s="313"/>
+      <c r="W16" s="313"/>
+      <c r="X16" s="313"/>
+      <c r="Y16" s="313"/>
+      <c r="Z16" s="313"/>
+      <c r="AA16" s="313"/>
+      <c r="AB16" s="313"/>
+      <c r="AC16" s="313"/>
+      <c r="AD16" s="313"/>
+      <c r="AE16" s="314"/>
+      <c r="AF16" s="309"/>
+      <c r="AG16" s="310"/>
+      <c r="AH16" s="310"/>
+      <c r="AI16" s="311"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="339"/>
-      <c r="C17" s="340"/>
-      <c r="D17" s="341"/>
-      <c r="E17" s="342"/>
-      <c r="F17" s="343"/>
-      <c r="G17" s="339"/>
-      <c r="H17" s="344"/>
-      <c r="I17" s="340"/>
-      <c r="J17" s="345"/>
-      <c r="K17" s="346"/>
-      <c r="L17" s="346"/>
-      <c r="M17" s="346"/>
-      <c r="N17" s="346"/>
-      <c r="O17" s="346"/>
-      <c r="P17" s="347"/>
-      <c r="Q17" s="348"/>
-      <c r="R17" s="349"/>
-      <c r="S17" s="349"/>
-      <c r="T17" s="349"/>
-      <c r="U17" s="349"/>
-      <c r="V17" s="349"/>
-      <c r="W17" s="349"/>
-      <c r="X17" s="349"/>
-      <c r="Y17" s="349"/>
-      <c r="Z17" s="349"/>
-      <c r="AA17" s="349"/>
-      <c r="AB17" s="349"/>
-      <c r="AC17" s="349"/>
-      <c r="AD17" s="349"/>
-      <c r="AE17" s="350"/>
-      <c r="AF17" s="345"/>
-      <c r="AG17" s="346"/>
-      <c r="AH17" s="346"/>
-      <c r="AI17" s="347"/>
+      <c r="B17" s="303"/>
+      <c r="C17" s="304"/>
+      <c r="D17" s="305"/>
+      <c r="E17" s="306"/>
+      <c r="F17" s="307"/>
+      <c r="G17" s="303"/>
+      <c r="H17" s="308"/>
+      <c r="I17" s="304"/>
+      <c r="J17" s="309"/>
+      <c r="K17" s="310"/>
+      <c r="L17" s="310"/>
+      <c r="M17" s="310"/>
+      <c r="N17" s="310"/>
+      <c r="O17" s="310"/>
+      <c r="P17" s="311"/>
+      <c r="Q17" s="312"/>
+      <c r="R17" s="313"/>
+      <c r="S17" s="313"/>
+      <c r="T17" s="313"/>
+      <c r="U17" s="313"/>
+      <c r="V17" s="313"/>
+      <c r="W17" s="313"/>
+      <c r="X17" s="313"/>
+      <c r="Y17" s="313"/>
+      <c r="Z17" s="313"/>
+      <c r="AA17" s="313"/>
+      <c r="AB17" s="313"/>
+      <c r="AC17" s="313"/>
+      <c r="AD17" s="313"/>
+      <c r="AE17" s="314"/>
+      <c r="AF17" s="309"/>
+      <c r="AG17" s="310"/>
+      <c r="AH17" s="310"/>
+      <c r="AI17" s="311"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="339"/>
-      <c r="C18" s="340"/>
-      <c r="D18" s="341"/>
-      <c r="E18" s="342"/>
-      <c r="F18" s="343"/>
-      <c r="G18" s="339"/>
-      <c r="H18" s="344"/>
-      <c r="I18" s="340"/>
-      <c r="J18" s="345"/>
-      <c r="K18" s="346"/>
-      <c r="L18" s="346"/>
-      <c r="M18" s="346"/>
-      <c r="N18" s="346"/>
-      <c r="O18" s="346"/>
-      <c r="P18" s="347"/>
-      <c r="Q18" s="348"/>
-      <c r="R18" s="349"/>
-      <c r="S18" s="349"/>
-      <c r="T18" s="349"/>
-      <c r="U18" s="349"/>
-      <c r="V18" s="349"/>
-      <c r="W18" s="349"/>
-      <c r="X18" s="349"/>
-      <c r="Y18" s="349"/>
-      <c r="Z18" s="349"/>
-      <c r="AA18" s="349"/>
-      <c r="AB18" s="349"/>
-      <c r="AC18" s="349"/>
-      <c r="AD18" s="349"/>
-      <c r="AE18" s="350"/>
-      <c r="AF18" s="345"/>
-      <c r="AG18" s="346"/>
-      <c r="AH18" s="346"/>
-      <c r="AI18" s="347"/>
+      <c r="B18" s="303"/>
+      <c r="C18" s="304"/>
+      <c r="D18" s="305"/>
+      <c r="E18" s="306"/>
+      <c r="F18" s="307"/>
+      <c r="G18" s="303"/>
+      <c r="H18" s="308"/>
+      <c r="I18" s="304"/>
+      <c r="J18" s="309"/>
+      <c r="K18" s="310"/>
+      <c r="L18" s="310"/>
+      <c r="M18" s="310"/>
+      <c r="N18" s="310"/>
+      <c r="O18" s="310"/>
+      <c r="P18" s="311"/>
+      <c r="Q18" s="312"/>
+      <c r="R18" s="313"/>
+      <c r="S18" s="313"/>
+      <c r="T18" s="313"/>
+      <c r="U18" s="313"/>
+      <c r="V18" s="313"/>
+      <c r="W18" s="313"/>
+      <c r="X18" s="313"/>
+      <c r="Y18" s="313"/>
+      <c r="Z18" s="313"/>
+      <c r="AA18" s="313"/>
+      <c r="AB18" s="313"/>
+      <c r="AC18" s="313"/>
+      <c r="AD18" s="313"/>
+      <c r="AE18" s="314"/>
+      <c r="AF18" s="309"/>
+      <c r="AG18" s="310"/>
+      <c r="AH18" s="310"/>
+      <c r="AI18" s="311"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="339"/>
-      <c r="C19" s="340"/>
-      <c r="D19" s="341"/>
-      <c r="E19" s="342"/>
-      <c r="F19" s="343"/>
-      <c r="G19" s="339"/>
-      <c r="H19" s="344"/>
-      <c r="I19" s="340"/>
-      <c r="J19" s="345"/>
-      <c r="K19" s="346"/>
-      <c r="L19" s="346"/>
-      <c r="M19" s="346"/>
-      <c r="N19" s="346"/>
-      <c r="O19" s="346"/>
-      <c r="P19" s="347"/>
-      <c r="Q19" s="348"/>
-      <c r="R19" s="349"/>
-      <c r="S19" s="349"/>
-      <c r="T19" s="349"/>
-      <c r="U19" s="349"/>
-      <c r="V19" s="349"/>
-      <c r="W19" s="349"/>
-      <c r="X19" s="349"/>
-      <c r="Y19" s="349"/>
-      <c r="Z19" s="349"/>
-      <c r="AA19" s="349"/>
-      <c r="AB19" s="349"/>
-      <c r="AC19" s="349"/>
-      <c r="AD19" s="349"/>
-      <c r="AE19" s="350"/>
-      <c r="AF19" s="345"/>
-      <c r="AG19" s="346"/>
-      <c r="AH19" s="346"/>
-      <c r="AI19" s="347"/>
+      <c r="B19" s="303"/>
+      <c r="C19" s="304"/>
+      <c r="D19" s="305"/>
+      <c r="E19" s="306"/>
+      <c r="F19" s="307"/>
+      <c r="G19" s="303"/>
+      <c r="H19" s="308"/>
+      <c r="I19" s="304"/>
+      <c r="J19" s="309"/>
+      <c r="K19" s="310"/>
+      <c r="L19" s="310"/>
+      <c r="M19" s="310"/>
+      <c r="N19" s="310"/>
+      <c r="O19" s="310"/>
+      <c r="P19" s="311"/>
+      <c r="Q19" s="312"/>
+      <c r="R19" s="313"/>
+      <c r="S19" s="313"/>
+      <c r="T19" s="313"/>
+      <c r="U19" s="313"/>
+      <c r="V19" s="313"/>
+      <c r="W19" s="313"/>
+      <c r="X19" s="313"/>
+      <c r="Y19" s="313"/>
+      <c r="Z19" s="313"/>
+      <c r="AA19" s="313"/>
+      <c r="AB19" s="313"/>
+      <c r="AC19" s="313"/>
+      <c r="AD19" s="313"/>
+      <c r="AE19" s="314"/>
+      <c r="AF19" s="309"/>
+      <c r="AG19" s="310"/>
+      <c r="AH19" s="310"/>
+      <c r="AI19" s="311"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="339"/>
-      <c r="C20" s="340"/>
-      <c r="D20" s="341"/>
-      <c r="E20" s="342"/>
-      <c r="F20" s="343"/>
-      <c r="G20" s="339"/>
-      <c r="H20" s="344"/>
-      <c r="I20" s="340"/>
-      <c r="J20" s="345"/>
-      <c r="K20" s="346"/>
-      <c r="L20" s="346"/>
-      <c r="M20" s="346"/>
-      <c r="N20" s="346"/>
-      <c r="O20" s="346"/>
-      <c r="P20" s="347"/>
-      <c r="Q20" s="348"/>
-      <c r="R20" s="349"/>
-      <c r="S20" s="349"/>
-      <c r="T20" s="349"/>
-      <c r="U20" s="349"/>
-      <c r="V20" s="349"/>
-      <c r="W20" s="349"/>
-      <c r="X20" s="349"/>
-      <c r="Y20" s="349"/>
-      <c r="Z20" s="349"/>
-      <c r="AA20" s="349"/>
-      <c r="AB20" s="349"/>
-      <c r="AC20" s="349"/>
-      <c r="AD20" s="349"/>
-      <c r="AE20" s="350"/>
-      <c r="AF20" s="345"/>
-      <c r="AG20" s="346"/>
-      <c r="AH20" s="346"/>
-      <c r="AI20" s="347"/>
+      <c r="B20" s="303"/>
+      <c r="C20" s="304"/>
+      <c r="D20" s="305"/>
+      <c r="E20" s="306"/>
+      <c r="F20" s="307"/>
+      <c r="G20" s="303"/>
+      <c r="H20" s="308"/>
+      <c r="I20" s="304"/>
+      <c r="J20" s="309"/>
+      <c r="K20" s="310"/>
+      <c r="L20" s="310"/>
+      <c r="M20" s="310"/>
+      <c r="N20" s="310"/>
+      <c r="O20" s="310"/>
+      <c r="P20" s="311"/>
+      <c r="Q20" s="312"/>
+      <c r="R20" s="313"/>
+      <c r="S20" s="313"/>
+      <c r="T20" s="313"/>
+      <c r="U20" s="313"/>
+      <c r="V20" s="313"/>
+      <c r="W20" s="313"/>
+      <c r="X20" s="313"/>
+      <c r="Y20" s="313"/>
+      <c r="Z20" s="313"/>
+      <c r="AA20" s="313"/>
+      <c r="AB20" s="313"/>
+      <c r="AC20" s="313"/>
+      <c r="AD20" s="313"/>
+      <c r="AE20" s="314"/>
+      <c r="AF20" s="309"/>
+      <c r="AG20" s="310"/>
+      <c r="AH20" s="310"/>
+      <c r="AI20" s="311"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="339"/>
-      <c r="C21" s="340"/>
-      <c r="D21" s="341"/>
-      <c r="E21" s="342"/>
-      <c r="F21" s="343"/>
-      <c r="G21" s="339"/>
-      <c r="H21" s="344"/>
-      <c r="I21" s="340"/>
-      <c r="J21" s="345"/>
-      <c r="K21" s="346"/>
-      <c r="L21" s="346"/>
-      <c r="M21" s="346"/>
-      <c r="N21" s="346"/>
-      <c r="O21" s="346"/>
-      <c r="P21" s="347"/>
-      <c r="Q21" s="348"/>
-      <c r="R21" s="349"/>
-      <c r="S21" s="349"/>
-      <c r="T21" s="349"/>
-      <c r="U21" s="349"/>
-      <c r="V21" s="349"/>
-      <c r="W21" s="349"/>
-      <c r="X21" s="349"/>
-      <c r="Y21" s="349"/>
-      <c r="Z21" s="349"/>
-      <c r="AA21" s="349"/>
-      <c r="AB21" s="349"/>
-      <c r="AC21" s="349"/>
-      <c r="AD21" s="349"/>
-      <c r="AE21" s="350"/>
-      <c r="AF21" s="345"/>
-      <c r="AG21" s="346"/>
-      <c r="AH21" s="346"/>
-      <c r="AI21" s="347"/>
+      <c r="B21" s="303"/>
+      <c r="C21" s="304"/>
+      <c r="D21" s="305"/>
+      <c r="E21" s="306"/>
+      <c r="F21" s="307"/>
+      <c r="G21" s="303"/>
+      <c r="H21" s="308"/>
+      <c r="I21" s="304"/>
+      <c r="J21" s="309"/>
+      <c r="K21" s="310"/>
+      <c r="L21" s="310"/>
+      <c r="M21" s="310"/>
+      <c r="N21" s="310"/>
+      <c r="O21" s="310"/>
+      <c r="P21" s="311"/>
+      <c r="Q21" s="312"/>
+      <c r="R21" s="313"/>
+      <c r="S21" s="313"/>
+      <c r="T21" s="313"/>
+      <c r="U21" s="313"/>
+      <c r="V21" s="313"/>
+      <c r="W21" s="313"/>
+      <c r="X21" s="313"/>
+      <c r="Y21" s="313"/>
+      <c r="Z21" s="313"/>
+      <c r="AA21" s="313"/>
+      <c r="AB21" s="313"/>
+      <c r="AC21" s="313"/>
+      <c r="AD21" s="313"/>
+      <c r="AE21" s="314"/>
+      <c r="AF21" s="309"/>
+      <c r="AG21" s="310"/>
+      <c r="AH21" s="310"/>
+      <c r="AI21" s="311"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="339"/>
-      <c r="C22" s="340"/>
-      <c r="D22" s="341"/>
-      <c r="E22" s="342"/>
-      <c r="F22" s="343"/>
-      <c r="G22" s="339"/>
-      <c r="H22" s="344"/>
-      <c r="I22" s="340"/>
-      <c r="J22" s="345"/>
-      <c r="K22" s="346"/>
-      <c r="L22" s="346"/>
-      <c r="M22" s="346"/>
-      <c r="N22" s="346"/>
-      <c r="O22" s="346"/>
-      <c r="P22" s="347"/>
-      <c r="Q22" s="348"/>
-      <c r="R22" s="349"/>
-      <c r="S22" s="349"/>
-      <c r="T22" s="349"/>
-      <c r="U22" s="349"/>
-      <c r="V22" s="349"/>
-      <c r="W22" s="349"/>
-      <c r="X22" s="349"/>
-      <c r="Y22" s="349"/>
-      <c r="Z22" s="349"/>
-      <c r="AA22" s="349"/>
-      <c r="AB22" s="349"/>
-      <c r="AC22" s="349"/>
-      <c r="AD22" s="349"/>
-      <c r="AE22" s="350"/>
-      <c r="AF22" s="345"/>
-      <c r="AG22" s="346"/>
-      <c r="AH22" s="346"/>
-      <c r="AI22" s="347"/>
+      <c r="B22" s="303"/>
+      <c r="C22" s="304"/>
+      <c r="D22" s="305"/>
+      <c r="E22" s="306"/>
+      <c r="F22" s="307"/>
+      <c r="G22" s="303"/>
+      <c r="H22" s="308"/>
+      <c r="I22" s="304"/>
+      <c r="J22" s="309"/>
+      <c r="K22" s="310"/>
+      <c r="L22" s="310"/>
+      <c r="M22" s="310"/>
+      <c r="N22" s="310"/>
+      <c r="O22" s="310"/>
+      <c r="P22" s="311"/>
+      <c r="Q22" s="312"/>
+      <c r="R22" s="313"/>
+      <c r="S22" s="313"/>
+      <c r="T22" s="313"/>
+      <c r="U22" s="313"/>
+      <c r="V22" s="313"/>
+      <c r="W22" s="313"/>
+      <c r="X22" s="313"/>
+      <c r="Y22" s="313"/>
+      <c r="Z22" s="313"/>
+      <c r="AA22" s="313"/>
+      <c r="AB22" s="313"/>
+      <c r="AC22" s="313"/>
+      <c r="AD22" s="313"/>
+      <c r="AE22" s="314"/>
+      <c r="AF22" s="309"/>
+      <c r="AG22" s="310"/>
+      <c r="AH22" s="310"/>
+      <c r="AI22" s="311"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="339"/>
-      <c r="C23" s="340"/>
-      <c r="D23" s="341"/>
-      <c r="E23" s="342"/>
-      <c r="F23" s="343"/>
-      <c r="G23" s="339"/>
-      <c r="H23" s="344"/>
-      <c r="I23" s="340"/>
-      <c r="J23" s="345"/>
-      <c r="K23" s="346"/>
-      <c r="L23" s="346"/>
-      <c r="M23" s="346"/>
-      <c r="N23" s="346"/>
-      <c r="O23" s="346"/>
-      <c r="P23" s="347"/>
-      <c r="Q23" s="348"/>
-      <c r="R23" s="349"/>
-      <c r="S23" s="349"/>
-      <c r="T23" s="349"/>
-      <c r="U23" s="349"/>
-      <c r="V23" s="349"/>
-      <c r="W23" s="349"/>
-      <c r="X23" s="349"/>
-      <c r="Y23" s="349"/>
-      <c r="Z23" s="349"/>
-      <c r="AA23" s="349"/>
-      <c r="AB23" s="349"/>
-      <c r="AC23" s="349"/>
-      <c r="AD23" s="349"/>
-      <c r="AE23" s="350"/>
-      <c r="AF23" s="345"/>
-      <c r="AG23" s="346"/>
-      <c r="AH23" s="346"/>
-      <c r="AI23" s="347"/>
+      <c r="B23" s="303"/>
+      <c r="C23" s="304"/>
+      <c r="D23" s="305"/>
+      <c r="E23" s="306"/>
+      <c r="F23" s="307"/>
+      <c r="G23" s="303"/>
+      <c r="H23" s="308"/>
+      <c r="I23" s="304"/>
+      <c r="J23" s="309"/>
+      <c r="K23" s="310"/>
+      <c r="L23" s="310"/>
+      <c r="M23" s="310"/>
+      <c r="N23" s="310"/>
+      <c r="O23" s="310"/>
+      <c r="P23" s="311"/>
+      <c r="Q23" s="312"/>
+      <c r="R23" s="313"/>
+      <c r="S23" s="313"/>
+      <c r="T23" s="313"/>
+      <c r="U23" s="313"/>
+      <c r="V23" s="313"/>
+      <c r="W23" s="313"/>
+      <c r="X23" s="313"/>
+      <c r="Y23" s="313"/>
+      <c r="Z23" s="313"/>
+      <c r="AA23" s="313"/>
+      <c r="AB23" s="313"/>
+      <c r="AC23" s="313"/>
+      <c r="AD23" s="313"/>
+      <c r="AE23" s="314"/>
+      <c r="AF23" s="309"/>
+      <c r="AG23" s="310"/>
+      <c r="AH23" s="310"/>
+      <c r="AI23" s="311"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="339"/>
-      <c r="C24" s="340"/>
-      <c r="D24" s="341"/>
-      <c r="E24" s="342"/>
-      <c r="F24" s="343"/>
-      <c r="G24" s="339"/>
-      <c r="H24" s="344"/>
-      <c r="I24" s="340"/>
-      <c r="J24" s="345"/>
-      <c r="K24" s="346"/>
-      <c r="L24" s="346"/>
-      <c r="M24" s="346"/>
-      <c r="N24" s="346"/>
-      <c r="O24" s="346"/>
-      <c r="P24" s="347"/>
-      <c r="Q24" s="348"/>
-      <c r="R24" s="349"/>
-      <c r="S24" s="349"/>
-      <c r="T24" s="349"/>
-      <c r="U24" s="349"/>
-      <c r="V24" s="349"/>
-      <c r="W24" s="349"/>
-      <c r="X24" s="349"/>
-      <c r="Y24" s="349"/>
-      <c r="Z24" s="349"/>
-      <c r="AA24" s="349"/>
-      <c r="AB24" s="349"/>
-      <c r="AC24" s="349"/>
-      <c r="AD24" s="349"/>
-      <c r="AE24" s="350"/>
-      <c r="AF24" s="345"/>
-      <c r="AG24" s="346"/>
-      <c r="AH24" s="346"/>
-      <c r="AI24" s="347"/>
+      <c r="B24" s="303"/>
+      <c r="C24" s="304"/>
+      <c r="D24" s="305"/>
+      <c r="E24" s="306"/>
+      <c r="F24" s="307"/>
+      <c r="G24" s="303"/>
+      <c r="H24" s="308"/>
+      <c r="I24" s="304"/>
+      <c r="J24" s="309"/>
+      <c r="K24" s="310"/>
+      <c r="L24" s="310"/>
+      <c r="M24" s="310"/>
+      <c r="N24" s="310"/>
+      <c r="O24" s="310"/>
+      <c r="P24" s="311"/>
+      <c r="Q24" s="312"/>
+      <c r="R24" s="313"/>
+      <c r="S24" s="313"/>
+      <c r="T24" s="313"/>
+      <c r="U24" s="313"/>
+      <c r="V24" s="313"/>
+      <c r="W24" s="313"/>
+      <c r="X24" s="313"/>
+      <c r="Y24" s="313"/>
+      <c r="Z24" s="313"/>
+      <c r="AA24" s="313"/>
+      <c r="AB24" s="313"/>
+      <c r="AC24" s="313"/>
+      <c r="AD24" s="313"/>
+      <c r="AE24" s="314"/>
+      <c r="AF24" s="309"/>
+      <c r="AG24" s="310"/>
+      <c r="AH24" s="310"/>
+      <c r="AI24" s="311"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="339"/>
-      <c r="C25" s="340"/>
-      <c r="D25" s="341"/>
-      <c r="E25" s="342"/>
-      <c r="F25" s="343"/>
-      <c r="G25" s="339"/>
-      <c r="H25" s="344"/>
-      <c r="I25" s="340"/>
-      <c r="J25" s="345"/>
-      <c r="K25" s="346"/>
-      <c r="L25" s="346"/>
-      <c r="M25" s="346"/>
-      <c r="N25" s="346"/>
-      <c r="O25" s="346"/>
-      <c r="P25" s="347"/>
-      <c r="Q25" s="348"/>
-      <c r="R25" s="349"/>
-      <c r="S25" s="349"/>
-      <c r="T25" s="349"/>
-      <c r="U25" s="349"/>
-      <c r="V25" s="349"/>
-      <c r="W25" s="349"/>
-      <c r="X25" s="349"/>
-      <c r="Y25" s="349"/>
-      <c r="Z25" s="349"/>
-      <c r="AA25" s="349"/>
-      <c r="AB25" s="349"/>
-      <c r="AC25" s="349"/>
-      <c r="AD25" s="349"/>
-      <c r="AE25" s="350"/>
-      <c r="AF25" s="345"/>
-      <c r="AG25" s="346"/>
-      <c r="AH25" s="346"/>
-      <c r="AI25" s="347"/>
+      <c r="B25" s="303"/>
+      <c r="C25" s="304"/>
+      <c r="D25" s="305"/>
+      <c r="E25" s="306"/>
+      <c r="F25" s="307"/>
+      <c r="G25" s="303"/>
+      <c r="H25" s="308"/>
+      <c r="I25" s="304"/>
+      <c r="J25" s="309"/>
+      <c r="K25" s="310"/>
+      <c r="L25" s="310"/>
+      <c r="M25" s="310"/>
+      <c r="N25" s="310"/>
+      <c r="O25" s="310"/>
+      <c r="P25" s="311"/>
+      <c r="Q25" s="312"/>
+      <c r="R25" s="313"/>
+      <c r="S25" s="313"/>
+      <c r="T25" s="313"/>
+      <c r="U25" s="313"/>
+      <c r="V25" s="313"/>
+      <c r="W25" s="313"/>
+      <c r="X25" s="313"/>
+      <c r="Y25" s="313"/>
+      <c r="Z25" s="313"/>
+      <c r="AA25" s="313"/>
+      <c r="AB25" s="313"/>
+      <c r="AC25" s="313"/>
+      <c r="AD25" s="313"/>
+      <c r="AE25" s="314"/>
+      <c r="AF25" s="309"/>
+      <c r="AG25" s="310"/>
+      <c r="AH25" s="310"/>
+      <c r="AI25" s="311"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="339"/>
-      <c r="C26" s="340"/>
-      <c r="D26" s="341"/>
-      <c r="E26" s="342"/>
-      <c r="F26" s="343"/>
-      <c r="G26" s="339"/>
-      <c r="H26" s="344"/>
-      <c r="I26" s="340"/>
-      <c r="J26" s="345"/>
-      <c r="K26" s="346"/>
-      <c r="L26" s="346"/>
-      <c r="M26" s="346"/>
-      <c r="N26" s="346"/>
-      <c r="O26" s="346"/>
-      <c r="P26" s="347"/>
-      <c r="Q26" s="348"/>
-      <c r="R26" s="349"/>
-      <c r="S26" s="349"/>
-      <c r="T26" s="349"/>
-      <c r="U26" s="349"/>
-      <c r="V26" s="349"/>
-      <c r="W26" s="349"/>
-      <c r="X26" s="349"/>
-      <c r="Y26" s="349"/>
-      <c r="Z26" s="349"/>
-      <c r="AA26" s="349"/>
-      <c r="AB26" s="349"/>
-      <c r="AC26" s="349"/>
-      <c r="AD26" s="349"/>
-      <c r="AE26" s="350"/>
-      <c r="AF26" s="345"/>
-      <c r="AG26" s="346"/>
-      <c r="AH26" s="346"/>
-      <c r="AI26" s="347"/>
+      <c r="B26" s="303"/>
+      <c r="C26" s="304"/>
+      <c r="D26" s="305"/>
+      <c r="E26" s="306"/>
+      <c r="F26" s="307"/>
+      <c r="G26" s="303"/>
+      <c r="H26" s="308"/>
+      <c r="I26" s="304"/>
+      <c r="J26" s="309"/>
+      <c r="K26" s="310"/>
+      <c r="L26" s="310"/>
+      <c r="M26" s="310"/>
+      <c r="N26" s="310"/>
+      <c r="O26" s="310"/>
+      <c r="P26" s="311"/>
+      <c r="Q26" s="312"/>
+      <c r="R26" s="313"/>
+      <c r="S26" s="313"/>
+      <c r="T26" s="313"/>
+      <c r="U26" s="313"/>
+      <c r="V26" s="313"/>
+      <c r="W26" s="313"/>
+      <c r="X26" s="313"/>
+      <c r="Y26" s="313"/>
+      <c r="Z26" s="313"/>
+      <c r="AA26" s="313"/>
+      <c r="AB26" s="313"/>
+      <c r="AC26" s="313"/>
+      <c r="AD26" s="313"/>
+      <c r="AE26" s="314"/>
+      <c r="AF26" s="309"/>
+      <c r="AG26" s="310"/>
+      <c r="AH26" s="310"/>
+      <c r="AI26" s="311"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="339"/>
-      <c r="C27" s="340"/>
-      <c r="D27" s="341"/>
-      <c r="E27" s="342"/>
-      <c r="F27" s="343"/>
-      <c r="G27" s="339"/>
-      <c r="H27" s="344"/>
-      <c r="I27" s="340"/>
-      <c r="J27" s="345"/>
-      <c r="K27" s="346"/>
-      <c r="L27" s="346"/>
-      <c r="M27" s="346"/>
-      <c r="N27" s="346"/>
-      <c r="O27" s="346"/>
-      <c r="P27" s="347"/>
-      <c r="Q27" s="348"/>
-      <c r="R27" s="349"/>
-      <c r="S27" s="349"/>
-      <c r="T27" s="349"/>
-      <c r="U27" s="349"/>
-      <c r="V27" s="349"/>
-      <c r="W27" s="349"/>
-      <c r="X27" s="349"/>
-      <c r="Y27" s="349"/>
-      <c r="Z27" s="349"/>
-      <c r="AA27" s="349"/>
-      <c r="AB27" s="349"/>
-      <c r="AC27" s="349"/>
-      <c r="AD27" s="349"/>
-      <c r="AE27" s="350"/>
-      <c r="AF27" s="345"/>
-      <c r="AG27" s="346"/>
-      <c r="AH27" s="346"/>
-      <c r="AI27" s="347"/>
+      <c r="B27" s="303"/>
+      <c r="C27" s="304"/>
+      <c r="D27" s="305"/>
+      <c r="E27" s="306"/>
+      <c r="F27" s="307"/>
+      <c r="G27" s="303"/>
+      <c r="H27" s="308"/>
+      <c r="I27" s="304"/>
+      <c r="J27" s="309"/>
+      <c r="K27" s="310"/>
+      <c r="L27" s="310"/>
+      <c r="M27" s="310"/>
+      <c r="N27" s="310"/>
+      <c r="O27" s="310"/>
+      <c r="P27" s="311"/>
+      <c r="Q27" s="312"/>
+      <c r="R27" s="313"/>
+      <c r="S27" s="313"/>
+      <c r="T27" s="313"/>
+      <c r="U27" s="313"/>
+      <c r="V27" s="313"/>
+      <c r="W27" s="313"/>
+      <c r="X27" s="313"/>
+      <c r="Y27" s="313"/>
+      <c r="Z27" s="313"/>
+      <c r="AA27" s="313"/>
+      <c r="AB27" s="313"/>
+      <c r="AC27" s="313"/>
+      <c r="AD27" s="313"/>
+      <c r="AE27" s="314"/>
+      <c r="AF27" s="309"/>
+      <c r="AG27" s="310"/>
+      <c r="AH27" s="310"/>
+      <c r="AI27" s="311"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="339"/>
-      <c r="C28" s="340"/>
-      <c r="D28" s="341"/>
-      <c r="E28" s="342"/>
-      <c r="F28" s="343"/>
-      <c r="G28" s="339"/>
-      <c r="H28" s="344"/>
-      <c r="I28" s="340"/>
-      <c r="J28" s="345"/>
-      <c r="K28" s="346"/>
-      <c r="L28" s="346"/>
-      <c r="M28" s="346"/>
-      <c r="N28" s="346"/>
-      <c r="O28" s="346"/>
-      <c r="P28" s="347"/>
-      <c r="Q28" s="348"/>
-      <c r="R28" s="349"/>
-      <c r="S28" s="349"/>
-      <c r="T28" s="349"/>
-      <c r="U28" s="349"/>
-      <c r="V28" s="349"/>
-      <c r="W28" s="349"/>
-      <c r="X28" s="349"/>
-      <c r="Y28" s="349"/>
-      <c r="Z28" s="349"/>
-      <c r="AA28" s="349"/>
-      <c r="AB28" s="349"/>
-      <c r="AC28" s="349"/>
-      <c r="AD28" s="349"/>
-      <c r="AE28" s="350"/>
-      <c r="AF28" s="345"/>
-      <c r="AG28" s="346"/>
-      <c r="AH28" s="346"/>
-      <c r="AI28" s="347"/>
+      <c r="B28" s="303"/>
+      <c r="C28" s="304"/>
+      <c r="D28" s="305"/>
+      <c r="E28" s="306"/>
+      <c r="F28" s="307"/>
+      <c r="G28" s="303"/>
+      <c r="H28" s="308"/>
+      <c r="I28" s="304"/>
+      <c r="J28" s="309"/>
+      <c r="K28" s="310"/>
+      <c r="L28" s="310"/>
+      <c r="M28" s="310"/>
+      <c r="N28" s="310"/>
+      <c r="O28" s="310"/>
+      <c r="P28" s="311"/>
+      <c r="Q28" s="312"/>
+      <c r="R28" s="313"/>
+      <c r="S28" s="313"/>
+      <c r="T28" s="313"/>
+      <c r="U28" s="313"/>
+      <c r="V28" s="313"/>
+      <c r="W28" s="313"/>
+      <c r="X28" s="313"/>
+      <c r="Y28" s="313"/>
+      <c r="Z28" s="313"/>
+      <c r="AA28" s="313"/>
+      <c r="AB28" s="313"/>
+      <c r="AC28" s="313"/>
+      <c r="AD28" s="313"/>
+      <c r="AE28" s="314"/>
+      <c r="AF28" s="309"/>
+      <c r="AG28" s="310"/>
+      <c r="AH28" s="310"/>
+      <c r="AI28" s="311"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="339"/>
-      <c r="C29" s="340"/>
-      <c r="D29" s="341"/>
-      <c r="E29" s="342"/>
-      <c r="F29" s="343"/>
-      <c r="G29" s="339"/>
-      <c r="H29" s="344"/>
-      <c r="I29" s="340"/>
-      <c r="J29" s="345"/>
-      <c r="K29" s="346"/>
-      <c r="L29" s="346"/>
-      <c r="M29" s="346"/>
-      <c r="N29" s="346"/>
-      <c r="O29" s="346"/>
-      <c r="P29" s="347"/>
-      <c r="Q29" s="348"/>
-      <c r="R29" s="349"/>
-      <c r="S29" s="349"/>
-      <c r="T29" s="349"/>
-      <c r="U29" s="349"/>
-      <c r="V29" s="349"/>
-      <c r="W29" s="349"/>
-      <c r="X29" s="349"/>
-      <c r="Y29" s="349"/>
-      <c r="Z29" s="349"/>
-      <c r="AA29" s="349"/>
-      <c r="AB29" s="349"/>
-      <c r="AC29" s="349"/>
-      <c r="AD29" s="349"/>
-      <c r="AE29" s="350"/>
-      <c r="AF29" s="345"/>
-      <c r="AG29" s="346"/>
-      <c r="AH29" s="346"/>
-      <c r="AI29" s="347"/>
+      <c r="B29" s="303"/>
+      <c r="C29" s="304"/>
+      <c r="D29" s="305"/>
+      <c r="E29" s="306"/>
+      <c r="F29" s="307"/>
+      <c r="G29" s="303"/>
+      <c r="H29" s="308"/>
+      <c r="I29" s="304"/>
+      <c r="J29" s="309"/>
+      <c r="K29" s="310"/>
+      <c r="L29" s="310"/>
+      <c r="M29" s="310"/>
+      <c r="N29" s="310"/>
+      <c r="O29" s="310"/>
+      <c r="P29" s="311"/>
+      <c r="Q29" s="312"/>
+      <c r="R29" s="313"/>
+      <c r="S29" s="313"/>
+      <c r="T29" s="313"/>
+      <c r="U29" s="313"/>
+      <c r="V29" s="313"/>
+      <c r="W29" s="313"/>
+      <c r="X29" s="313"/>
+      <c r="Y29" s="313"/>
+      <c r="Z29" s="313"/>
+      <c r="AA29" s="313"/>
+      <c r="AB29" s="313"/>
+      <c r="AC29" s="313"/>
+      <c r="AD29" s="313"/>
+      <c r="AE29" s="314"/>
+      <c r="AF29" s="309"/>
+      <c r="AG29" s="310"/>
+      <c r="AH29" s="310"/>
+      <c r="AI29" s="311"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="339"/>
-      <c r="C30" s="340"/>
-      <c r="D30" s="341"/>
-      <c r="E30" s="342"/>
-      <c r="F30" s="343"/>
-      <c r="G30" s="339"/>
-      <c r="H30" s="344"/>
-      <c r="I30" s="340"/>
-      <c r="J30" s="345"/>
-      <c r="K30" s="346"/>
-      <c r="L30" s="346"/>
-      <c r="M30" s="346"/>
-      <c r="N30" s="346"/>
-      <c r="O30" s="346"/>
-      <c r="P30" s="347"/>
-      <c r="Q30" s="348"/>
-      <c r="R30" s="349"/>
-      <c r="S30" s="349"/>
-      <c r="T30" s="349"/>
-      <c r="U30" s="349"/>
-      <c r="V30" s="349"/>
-      <c r="W30" s="349"/>
-      <c r="X30" s="349"/>
-      <c r="Y30" s="349"/>
-      <c r="Z30" s="349"/>
-      <c r="AA30" s="349"/>
-      <c r="AB30" s="349"/>
-      <c r="AC30" s="349"/>
-      <c r="AD30" s="349"/>
-      <c r="AE30" s="350"/>
-      <c r="AF30" s="345"/>
-      <c r="AG30" s="346"/>
-      <c r="AH30" s="346"/>
-      <c r="AI30" s="347"/>
+      <c r="B30" s="303"/>
+      <c r="C30" s="304"/>
+      <c r="D30" s="305"/>
+      <c r="E30" s="306"/>
+      <c r="F30" s="307"/>
+      <c r="G30" s="303"/>
+      <c r="H30" s="308"/>
+      <c r="I30" s="304"/>
+      <c r="J30" s="309"/>
+      <c r="K30" s="310"/>
+      <c r="L30" s="310"/>
+      <c r="M30" s="310"/>
+      <c r="N30" s="310"/>
+      <c r="O30" s="310"/>
+      <c r="P30" s="311"/>
+      <c r="Q30" s="312"/>
+      <c r="R30" s="313"/>
+      <c r="S30" s="313"/>
+      <c r="T30" s="313"/>
+      <c r="U30" s="313"/>
+      <c r="V30" s="313"/>
+      <c r="W30" s="313"/>
+      <c r="X30" s="313"/>
+      <c r="Y30" s="313"/>
+      <c r="Z30" s="313"/>
+      <c r="AA30" s="313"/>
+      <c r="AB30" s="313"/>
+      <c r="AC30" s="313"/>
+      <c r="AD30" s="313"/>
+      <c r="AE30" s="314"/>
+      <c r="AF30" s="309"/>
+      <c r="AG30" s="310"/>
+      <c r="AH30" s="310"/>
+      <c r="AI30" s="311"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="339"/>
-      <c r="C31" s="340"/>
-      <c r="D31" s="341"/>
-      <c r="E31" s="342"/>
-      <c r="F31" s="343"/>
-      <c r="G31" s="339"/>
-      <c r="H31" s="344"/>
-      <c r="I31" s="340"/>
-      <c r="J31" s="345"/>
-      <c r="K31" s="346"/>
-      <c r="L31" s="346"/>
-      <c r="M31" s="346"/>
-      <c r="N31" s="346"/>
-      <c r="O31" s="346"/>
-      <c r="P31" s="347"/>
-      <c r="Q31" s="348"/>
-      <c r="R31" s="349"/>
-      <c r="S31" s="349"/>
-      <c r="T31" s="349"/>
-      <c r="U31" s="349"/>
-      <c r="V31" s="349"/>
-      <c r="W31" s="349"/>
-      <c r="X31" s="349"/>
-      <c r="Y31" s="349"/>
-      <c r="Z31" s="349"/>
-      <c r="AA31" s="349"/>
-      <c r="AB31" s="349"/>
-      <c r="AC31" s="349"/>
-      <c r="AD31" s="349"/>
-      <c r="AE31" s="350"/>
-      <c r="AF31" s="345"/>
-      <c r="AG31" s="346"/>
-      <c r="AH31" s="346"/>
-      <c r="AI31" s="347"/>
+      <c r="B31" s="303"/>
+      <c r="C31" s="304"/>
+      <c r="D31" s="305"/>
+      <c r="E31" s="306"/>
+      <c r="F31" s="307"/>
+      <c r="G31" s="303"/>
+      <c r="H31" s="308"/>
+      <c r="I31" s="304"/>
+      <c r="J31" s="309"/>
+      <c r="K31" s="310"/>
+      <c r="L31" s="310"/>
+      <c r="M31" s="310"/>
+      <c r="N31" s="310"/>
+      <c r="O31" s="310"/>
+      <c r="P31" s="311"/>
+      <c r="Q31" s="312"/>
+      <c r="R31" s="313"/>
+      <c r="S31" s="313"/>
+      <c r="T31" s="313"/>
+      <c r="U31" s="313"/>
+      <c r="V31" s="313"/>
+      <c r="W31" s="313"/>
+      <c r="X31" s="313"/>
+      <c r="Y31" s="313"/>
+      <c r="Z31" s="313"/>
+      <c r="AA31" s="313"/>
+      <c r="AB31" s="313"/>
+      <c r="AC31" s="313"/>
+      <c r="AD31" s="313"/>
+      <c r="AE31" s="314"/>
+      <c r="AF31" s="309"/>
+      <c r="AG31" s="310"/>
+      <c r="AH31" s="310"/>
+      <c r="AI31" s="311"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="339"/>
-      <c r="C32" s="340"/>
-      <c r="D32" s="341"/>
-      <c r="E32" s="342"/>
-      <c r="F32" s="343"/>
-      <c r="G32" s="339"/>
-      <c r="H32" s="344"/>
-      <c r="I32" s="340"/>
-      <c r="J32" s="345"/>
-      <c r="K32" s="364"/>
-      <c r="L32" s="346"/>
-      <c r="M32" s="346"/>
-      <c r="N32" s="346"/>
-      <c r="O32" s="346"/>
-      <c r="P32" s="347"/>
-      <c r="Q32" s="348"/>
-      <c r="R32" s="349"/>
-      <c r="S32" s="349"/>
-      <c r="T32" s="349"/>
-      <c r="U32" s="349"/>
-      <c r="V32" s="349"/>
-      <c r="W32" s="349"/>
-      <c r="X32" s="349"/>
-      <c r="Y32" s="349"/>
-      <c r="Z32" s="349"/>
-      <c r="AA32" s="349"/>
-      <c r="AB32" s="349"/>
-      <c r="AC32" s="349"/>
-      <c r="AD32" s="349"/>
-      <c r="AE32" s="350"/>
-      <c r="AF32" s="345"/>
-      <c r="AG32" s="346"/>
-      <c r="AH32" s="346"/>
-      <c r="AI32" s="347"/>
+      <c r="B32" s="303"/>
+      <c r="C32" s="304"/>
+      <c r="D32" s="305"/>
+      <c r="E32" s="306"/>
+      <c r="F32" s="307"/>
+      <c r="G32" s="303"/>
+      <c r="H32" s="308"/>
+      <c r="I32" s="304"/>
+      <c r="J32" s="309"/>
+      <c r="K32" s="315"/>
+      <c r="L32" s="310"/>
+      <c r="M32" s="310"/>
+      <c r="N32" s="310"/>
+      <c r="O32" s="310"/>
+      <c r="P32" s="311"/>
+      <c r="Q32" s="312"/>
+      <c r="R32" s="313"/>
+      <c r="S32" s="313"/>
+      <c r="T32" s="313"/>
+      <c r="U32" s="313"/>
+      <c r="V32" s="313"/>
+      <c r="W32" s="313"/>
+      <c r="X32" s="313"/>
+      <c r="Y32" s="313"/>
+      <c r="Z32" s="313"/>
+      <c r="AA32" s="313"/>
+      <c r="AB32" s="313"/>
+      <c r="AC32" s="313"/>
+      <c r="AD32" s="313"/>
+      <c r="AE32" s="314"/>
+      <c r="AF32" s="309"/>
+      <c r="AG32" s="310"/>
+      <c r="AH32" s="310"/>
+      <c r="AI32" s="311"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="339"/>
-      <c r="C33" s="340"/>
-      <c r="D33" s="341"/>
-      <c r="E33" s="342"/>
-      <c r="F33" s="343"/>
-      <c r="G33" s="339"/>
-      <c r="H33" s="344"/>
-      <c r="I33" s="340"/>
-      <c r="J33" s="345"/>
-      <c r="K33" s="346"/>
-      <c r="L33" s="346"/>
-      <c r="M33" s="346"/>
-      <c r="N33" s="346"/>
-      <c r="O33" s="346"/>
-      <c r="P33" s="347"/>
-      <c r="Q33" s="348"/>
-      <c r="R33" s="349"/>
-      <c r="S33" s="349"/>
-      <c r="T33" s="349"/>
-      <c r="U33" s="349"/>
-      <c r="V33" s="349"/>
-      <c r="W33" s="349"/>
-      <c r="X33" s="349"/>
-      <c r="Y33" s="349"/>
-      <c r="Z33" s="349"/>
-      <c r="AA33" s="349"/>
-      <c r="AB33" s="349"/>
-      <c r="AC33" s="349"/>
-      <c r="AD33" s="349"/>
-      <c r="AE33" s="350"/>
-      <c r="AF33" s="345"/>
-      <c r="AG33" s="346"/>
-      <c r="AH33" s="346"/>
-      <c r="AI33" s="347"/>
+      <c r="B33" s="303"/>
+      <c r="C33" s="304"/>
+      <c r="D33" s="305"/>
+      <c r="E33" s="306"/>
+      <c r="F33" s="307"/>
+      <c r="G33" s="303"/>
+      <c r="H33" s="308"/>
+      <c r="I33" s="304"/>
+      <c r="J33" s="309"/>
+      <c r="K33" s="310"/>
+      <c r="L33" s="310"/>
+      <c r="M33" s="310"/>
+      <c r="N33" s="310"/>
+      <c r="O33" s="310"/>
+      <c r="P33" s="311"/>
+      <c r="Q33" s="312"/>
+      <c r="R33" s="313"/>
+      <c r="S33" s="313"/>
+      <c r="T33" s="313"/>
+      <c r="U33" s="313"/>
+      <c r="V33" s="313"/>
+      <c r="W33" s="313"/>
+      <c r="X33" s="313"/>
+      <c r="Y33" s="313"/>
+      <c r="Z33" s="313"/>
+      <c r="AA33" s="313"/>
+      <c r="AB33" s="313"/>
+      <c r="AC33" s="313"/>
+      <c r="AD33" s="313"/>
+      <c r="AE33" s="314"/>
+      <c r="AF33" s="309"/>
+      <c r="AG33" s="310"/>
+      <c r="AH33" s="310"/>
+      <c r="AI33" s="311"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -15383,6 +15217,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -15399,9 +15389,9 @@
   </sheetPr>
   <dimension ref="A1:AKC386"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -24731,7 +24721,7 @@
         <v>504</v>
       </c>
       <c r="G112" s="209" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H112" s="209"/>
       <c r="I112" s="205"/>
@@ -24766,7 +24756,7 @@
         <v>506</v>
       </c>
       <c r="G113" s="209" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H113" s="209"/>
       <c r="I113" s="205"/>
@@ -24799,7 +24789,7 @@
         <v>507</v>
       </c>
       <c r="G114" s="209" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H114" s="209"/>
       <c r="I114" s="205"/>
@@ -24832,7 +24822,7 @@
         <v>508</v>
       </c>
       <c r="G115" s="209" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H115" s="209"/>
       <c r="I115" s="205"/>
@@ -24867,7 +24857,7 @@
         <v>509</v>
       </c>
       <c r="G116" s="209" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H116" s="209"/>
       <c r="I116" s="205"/>
@@ -24900,7 +24890,7 @@
         <v>510</v>
       </c>
       <c r="G117" s="209" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H117" s="209"/>
       <c r="I117" s="205"/>
@@ -24933,7 +24923,7 @@
         <v>511</v>
       </c>
       <c r="G118" s="209" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H118" s="209"/>
       <c r="I118" s="205"/>
@@ -24966,7 +24956,7 @@
         <v>512</v>
       </c>
       <c r="G119" s="209" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H119" s="209"/>
       <c r="I119" s="205"/>
@@ -24999,7 +24989,7 @@
         <v>513</v>
       </c>
       <c r="G120" s="209" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H120" s="209"/>
       <c r="I120" s="205"/>
@@ -25034,7 +25024,7 @@
         <v>515</v>
       </c>
       <c r="G121" s="209" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H121" s="209"/>
       <c r="I121" s="205"/>
@@ -25067,7 +25057,7 @@
         <v>516</v>
       </c>
       <c r="G122" s="209" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H122" s="209"/>
       <c r="I122" s="205"/>
@@ -25100,7 +25090,7 @@
         <v>517</v>
       </c>
       <c r="G123" s="209" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H123" s="209"/>
       <c r="I123" s="205"/>
@@ -25133,7 +25123,7 @@
         <v>518</v>
       </c>
       <c r="G124" s="209" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H124" s="209"/>
       <c r="I124" s="205"/>
@@ -25166,7 +25156,7 @@
         <v>519</v>
       </c>
       <c r="G125" s="209" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H125" s="209"/>
       <c r="I125" s="205"/>
@@ -25201,7 +25191,7 @@
         <v>521</v>
       </c>
       <c r="G126" s="209" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="H126" s="209"/>
       <c r="I126" s="205"/>
@@ -25277,7 +25267,7 @@
         <v>525</v>
       </c>
       <c r="G128" s="209" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="H128" s="209"/>
       <c r="I128" s="205"/>
@@ -25664,7 +25654,7 @@
         <v>542</v>
       </c>
       <c r="G139" s="209" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="H139" s="209"/>
       <c r="I139" s="205"/>
@@ -25699,7 +25689,7 @@
         <v>544</v>
       </c>
       <c r="G140" s="209" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="H140" s="209"/>
       <c r="I140" s="205"/>
@@ -25734,7 +25724,7 @@
         <v>546</v>
       </c>
       <c r="G141" s="209" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="H141" s="209"/>
       <c r="I141" s="205"/>
@@ -25769,7 +25759,7 @@
         <v>547</v>
       </c>
       <c r="G142" s="209" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="H142" s="209"/>
       <c r="I142" s="205"/>
@@ -25804,7 +25794,7 @@
         <v>549</v>
       </c>
       <c r="G143" s="209" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="H143" s="209"/>
       <c r="I143" s="205"/>
@@ -25839,7 +25829,7 @@
         <v>551</v>
       </c>
       <c r="G144" s="209" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="H144" s="209"/>
       <c r="I144" s="205"/>
@@ -25872,7 +25862,7 @@
         <v>552</v>
       </c>
       <c r="G145" s="209" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="H145" s="209"/>
       <c r="I145" s="205"/>
@@ -25905,7 +25895,7 @@
         <v>553</v>
       </c>
       <c r="G146" s="209" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="H146" s="209"/>
       <c r="I146" s="205"/>
@@ -25938,7 +25928,7 @@
         <v>554</v>
       </c>
       <c r="G147" s="209" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="H147" s="209"/>
       <c r="I147" s="205"/>
@@ -25971,7 +25961,7 @@
         <v>555</v>
       </c>
       <c r="G148" s="209" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="H148" s="209"/>
       <c r="I148" s="205"/>
@@ -26004,7 +25994,7 @@
         <v>556</v>
       </c>
       <c r="G149" s="209" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="H149" s="209"/>
       <c r="I149" s="205"/>
@@ -27168,7 +27158,7 @@
       <c r="O183" s="216"/>
       <c r="P183" s="216"/>
     </row>
-    <row r="184" spans="1:16" s="213" customFormat="1" ht="33.75">
+    <row r="184" spans="1:16" s="213" customFormat="1" ht="22.5">
       <c r="A184" s="205" t="str" cm="1">
         <f t="array" aca="1" ref="A184" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E184),
@@ -27197,7 +27187,7 @@
         <v>599</v>
       </c>
       <c r="G184" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H184" s="209"/>
       <c r="I184" s="205"/>
@@ -27209,7 +27199,7 @@
       <c r="O184" s="216"/>
       <c r="P184" s="216"/>
     </row>
-    <row r="185" spans="1:16" s="213" customFormat="1" ht="33.75">
+    <row r="185" spans="1:16" s="213" customFormat="1" ht="22.5">
       <c r="A185" s="205" t="str" cm="1">
         <f t="array" aca="1" ref="A185" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E185),
@@ -27232,7 +27222,7 @@
         <v>600</v>
       </c>
       <c r="G185" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H185" s="209"/>
       <c r="I185" s="205"/>
@@ -27244,7 +27234,7 @@
       <c r="O185" s="216"/>
       <c r="P185" s="216"/>
     </row>
-    <row r="186" spans="1:16" s="213" customFormat="1" ht="33.75">
+    <row r="186" spans="1:16" s="213" customFormat="1" ht="22.5">
       <c r="A186" s="205" t="str" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E186),
@@ -27265,7 +27255,7 @@
         <v>601</v>
       </c>
       <c r="G186" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H186" s="209"/>
       <c r="I186" s="205"/>
@@ -27277,7 +27267,7 @@
       <c r="O186" s="216"/>
       <c r="P186" s="216"/>
     </row>
-    <row r="187" spans="1:16" s="213" customFormat="1" ht="33.75">
+    <row r="187" spans="1:16" s="213" customFormat="1" ht="22.5">
       <c r="A187" s="205" t="str" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E187),
@@ -27300,7 +27290,7 @@
         <v>603</v>
       </c>
       <c r="G187" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H187" s="209"/>
       <c r="I187" s="205"/>
@@ -27312,7 +27302,7 @@
       <c r="O187" s="216"/>
       <c r="P187" s="216"/>
     </row>
-    <row r="188" spans="1:16" s="213" customFormat="1" ht="33.75">
+    <row r="188" spans="1:16" s="213" customFormat="1" ht="22.5">
       <c r="A188" s="205" t="str" cm="1">
         <f t="array" aca="1" ref="A188" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E188),
@@ -27333,7 +27323,7 @@
         <v>604</v>
       </c>
       <c r="G188" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H188" s="209"/>
       <c r="I188" s="205"/>
@@ -27345,7 +27335,7 @@
       <c r="O188" s="216"/>
       <c r="P188" s="216"/>
     </row>
-    <row r="189" spans="1:16" s="213" customFormat="1" ht="33.75">
+    <row r="189" spans="1:16" s="213" customFormat="1" ht="22.5">
       <c r="A189" s="205" t="str" cm="1">
         <f t="array" aca="1" ref="A189" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E189),
@@ -27370,7 +27360,7 @@
         <v>605</v>
       </c>
       <c r="G189" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H189" s="209"/>
       <c r="I189" s="205"/>
@@ -27409,7 +27399,7 @@
         <v>609</v>
       </c>
       <c r="G190" s="209" t="s">
-        <v>853</v>
+        <v>173</v>
       </c>
       <c r="H190" s="209"/>
       <c r="I190" s="205"/>
@@ -27442,7 +27432,7 @@
         <v>610</v>
       </c>
       <c r="G191" s="209" t="s">
-        <v>853</v>
+        <v>173</v>
       </c>
       <c r="H191" s="209"/>
       <c r="I191" s="205"/>
@@ -27475,7 +27465,7 @@
         <v>611</v>
       </c>
       <c r="G192" s="209" t="s">
-        <v>853</v>
+        <v>173</v>
       </c>
       <c r="H192" s="209"/>
       <c r="I192" s="205"/>
@@ -27508,7 +27498,7 @@
         <v>612</v>
       </c>
       <c r="G193" s="209" t="s">
-        <v>853</v>
+        <v>173</v>
       </c>
       <c r="H193" s="209"/>
       <c r="I193" s="205"/>
@@ -27541,7 +27531,7 @@
         <v>613</v>
       </c>
       <c r="G194" s="209" t="s">
-        <v>853</v>
+        <v>173</v>
       </c>
       <c r="H194" s="209"/>
       <c r="I194" s="205"/>
@@ -27574,7 +27564,7 @@
         <v>614</v>
       </c>
       <c r="G195" s="209" t="s">
-        <v>853</v>
+        <v>173</v>
       </c>
       <c r="H195" s="209"/>
       <c r="I195" s="205"/>
@@ -27607,7 +27597,7 @@
         <v>615</v>
       </c>
       <c r="G196" s="209" t="s">
-        <v>853</v>
+        <v>173</v>
       </c>
       <c r="H196" s="209"/>
       <c r="I196" s="205"/>
@@ -27642,7 +27632,7 @@
         <v>617</v>
       </c>
       <c r="G197" s="209" t="s">
-        <v>853</v>
+        <v>173</v>
       </c>
       <c r="H197" s="209"/>
       <c r="I197" s="205"/>
@@ -27679,7 +27669,7 @@
         <v>619</v>
       </c>
       <c r="G198" s="209" t="s">
-        <v>853</v>
+        <v>173</v>
       </c>
       <c r="H198" s="209"/>
       <c r="I198" s="205"/>
@@ -27712,7 +27702,7 @@
         <v>620</v>
       </c>
       <c r="G199" s="209" t="s">
-        <v>853</v>
+        <v>173</v>
       </c>
       <c r="H199" s="209"/>
       <c r="I199" s="205"/>
@@ -27745,7 +27735,7 @@
         <v>621</v>
       </c>
       <c r="G200" s="209" t="s">
-        <v>853</v>
+        <v>173</v>
       </c>
       <c r="H200" s="209"/>
       <c r="I200" s="205"/>
@@ -27778,7 +27768,7 @@
         <v>622</v>
       </c>
       <c r="G201" s="209" t="s">
-        <v>853</v>
+        <v>173</v>
       </c>
       <c r="H201" s="209"/>
       <c r="I201" s="205"/>
@@ -27811,7 +27801,7 @@
         <v>623</v>
       </c>
       <c r="G202" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H202" s="209"/>
       <c r="I202" s="205"/>
@@ -27844,7 +27834,7 @@
         <v>624</v>
       </c>
       <c r="G203" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H203" s="209"/>
       <c r="I203" s="205"/>
@@ -27877,7 +27867,7 @@
         <v>625</v>
       </c>
       <c r="G204" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H204" s="209"/>
       <c r="I204" s="205"/>
@@ -27910,7 +27900,7 @@
         <v>626</v>
       </c>
       <c r="G205" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H205" s="209"/>
       <c r="I205" s="205"/>
@@ -27943,7 +27933,7 @@
         <v>627</v>
       </c>
       <c r="G206" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H206" s="209"/>
       <c r="I206" s="205"/>
@@ -27955,7 +27945,7 @@
       <c r="O206" s="216"/>
       <c r="P206" s="216"/>
     </row>
-    <row r="207" spans="1:16" s="213" customFormat="1" ht="33.75">
+    <row r="207" spans="1:16" s="213" customFormat="1" ht="22.5">
       <c r="A207" s="205" t="str" cm="1">
         <f t="array" aca="1" ref="A207" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E207),
@@ -27976,7 +27966,7 @@
         <v>628</v>
       </c>
       <c r="G207" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H207" s="209"/>
       <c r="I207" s="205"/>
@@ -27988,7 +27978,7 @@
       <c r="O207" s="216"/>
       <c r="P207" s="216"/>
     </row>
-    <row r="208" spans="1:16" s="213" customFormat="1" ht="33.75">
+    <row r="208" spans="1:16" s="213" customFormat="1" ht="22.5">
       <c r="A208" s="205" t="str" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E208),
@@ -28009,7 +27999,7 @@
         <v>629</v>
       </c>
       <c r="G208" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H208" s="209"/>
       <c r="I208" s="205"/>
@@ -28021,7 +28011,7 @@
       <c r="O208" s="216"/>
       <c r="P208" s="216"/>
     </row>
-    <row r="209" spans="1:16" s="213" customFormat="1" ht="33.75">
+    <row r="209" spans="1:16" s="213" customFormat="1" ht="22.5">
       <c r="A209" s="205" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E209),
@@ -28042,7 +28032,7 @@
         <v>630</v>
       </c>
       <c r="G209" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H209" s="209"/>
       <c r="I209" s="205"/>
@@ -28075,7 +28065,7 @@
         <v>631</v>
       </c>
       <c r="G210" s="209" t="s">
-        <v>853</v>
+        <v>173</v>
       </c>
       <c r="H210" s="209"/>
       <c r="I210" s="205"/>
@@ -28087,7 +28077,7 @@
       <c r="O210" s="216"/>
       <c r="P210" s="216"/>
     </row>
-    <row r="211" spans="1:16" s="213" customFormat="1" ht="33.75">
+    <row r="211" spans="1:16" s="213" customFormat="1" ht="22.5">
       <c r="A211" s="205" t="str" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E211),
@@ -28112,7 +28102,7 @@
         <v>633</v>
       </c>
       <c r="G211" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H211" s="209"/>
       <c r="I211" s="205"/>
@@ -28124,7 +28114,7 @@
       <c r="O211" s="216"/>
       <c r="P211" s="216"/>
     </row>
-    <row r="212" spans="1:16" s="213" customFormat="1" ht="33.75">
+    <row r="212" spans="1:16" s="213" customFormat="1" ht="22.5">
       <c r="A212" s="205" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E212),
@@ -28145,7 +28135,7 @@
         <v>634</v>
       </c>
       <c r="G212" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H212" s="209"/>
       <c r="I212" s="205"/>
@@ -28157,7 +28147,7 @@
       <c r="O212" s="216"/>
       <c r="P212" s="216"/>
     </row>
-    <row r="213" spans="1:16" s="213" customFormat="1" ht="33.75">
+    <row r="213" spans="1:16" s="213" customFormat="1" ht="22.5">
       <c r="A213" s="205" t="str" cm="1">
         <f t="array" aca="1" ref="A213" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E213),
@@ -28178,7 +28168,7 @@
         <v>635</v>
       </c>
       <c r="G213" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H213" s="209"/>
       <c r="I213" s="205"/>
@@ -28190,7 +28180,7 @@
       <c r="O213" s="216"/>
       <c r="P213" s="216"/>
     </row>
-    <row r="214" spans="1:16" s="213" customFormat="1" ht="33.75">
+    <row r="214" spans="1:16" s="213" customFormat="1" ht="22.5">
       <c r="A214" s="205" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
@@ -28211,7 +28201,7 @@
         <v>621</v>
       </c>
       <c r="G214" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H214" s="209"/>
       <c r="I214" s="205"/>
@@ -28223,7 +28213,7 @@
       <c r="O214" s="216"/>
       <c r="P214" s="216"/>
     </row>
-    <row r="215" spans="1:16" s="213" customFormat="1" ht="33.75">
+    <row r="215" spans="1:16" s="213" customFormat="1" ht="22.5">
       <c r="A215" s="205" t="str" cm="1">
         <f t="array" aca="1" ref="A215" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E215),
@@ -28244,7 +28234,7 @@
         <v>622</v>
       </c>
       <c r="G215" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H215" s="209"/>
       <c r="I215" s="205"/>
@@ -28277,7 +28267,7 @@
         <v>636</v>
       </c>
       <c r="G216" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H216" s="209"/>
       <c r="I216" s="205"/>
@@ -28310,7 +28300,7 @@
         <v>637</v>
       </c>
       <c r="G217" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H217" s="209"/>
       <c r="I217" s="205"/>
@@ -28343,7 +28333,7 @@
         <v>851</v>
       </c>
       <c r="G218" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H218" s="209"/>
       <c r="I218" s="205"/>
@@ -28376,7 +28366,7 @@
         <v>638</v>
       </c>
       <c r="G219" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H219" s="209"/>
       <c r="I219" s="205"/>
@@ -28409,7 +28399,7 @@
         <v>639</v>
       </c>
       <c r="G220" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H220" s="209"/>
       <c r="I220" s="205"/>
@@ -28442,7 +28432,7 @@
         <v>640</v>
       </c>
       <c r="G221" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H221" s="209"/>
       <c r="I221" s="205"/>
@@ -28454,7 +28444,7 @@
       <c r="O221" s="216"/>
       <c r="P221" s="216"/>
     </row>
-    <row r="222" spans="1:16" s="213" customFormat="1" ht="33.75">
+    <row r="222" spans="1:16" s="213" customFormat="1" ht="22.5">
       <c r="A222" s="205" t="str" cm="1">
         <f t="array" aca="1" ref="A222" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E222),
@@ -28475,7 +28465,7 @@
         <v>641</v>
       </c>
       <c r="G222" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H222" s="209"/>
       <c r="I222" s="205"/>
@@ -28487,7 +28477,7 @@
       <c r="O222" s="216"/>
       <c r="P222" s="216"/>
     </row>
-    <row r="223" spans="1:16" s="213" customFormat="1" ht="33.75">
+    <row r="223" spans="1:16" s="213" customFormat="1" ht="22.5">
       <c r="A223" s="205" t="str" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E223),
@@ -28508,7 +28498,7 @@
         <v>642</v>
       </c>
       <c r="G223" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H223" s="209"/>
       <c r="I223" s="205"/>
@@ -28520,7 +28510,7 @@
       <c r="O223" s="216"/>
       <c r="P223" s="216"/>
     </row>
-    <row r="224" spans="1:16" s="213" customFormat="1" ht="33.75">
+    <row r="224" spans="1:16" s="213" customFormat="1" ht="22.5">
       <c r="A224" s="205" t="str" cm="1">
         <f t="array" aca="1" ref="A224" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E224),
@@ -28541,7 +28531,7 @@
         <v>643</v>
       </c>
       <c r="G224" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H224" s="209"/>
       <c r="I224" s="205"/>
@@ -28553,7 +28543,7 @@
       <c r="O224" s="216"/>
       <c r="P224" s="216"/>
     </row>
-    <row r="225" spans="1:16" s="213" customFormat="1" ht="33.75">
+    <row r="225" spans="1:16" s="213" customFormat="1" ht="22.5">
       <c r="A225" s="205" t="str" cm="1">
         <f t="array" aca="1" ref="A225" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E225),
@@ -28574,7 +28564,7 @@
         <v>631</v>
       </c>
       <c r="G225" s="209" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H225" s="209"/>
       <c r="I225" s="205"/>
@@ -29194,7 +29184,7 @@
         <v>664</v>
       </c>
       <c r="G243" s="209" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="H243" s="209"/>
       <c r="I243" s="205"/>
@@ -32413,10 +32403,10 @@
         <v>778</v>
       </c>
       <c r="G336" s="184" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="H336" s="184" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="I336" s="184"/>
       <c r="J336" s="190"/>
@@ -33440,7 +33430,7 @@
         <v>813</v>
       </c>
       <c r="G366" s="184" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="H366" s="209"/>
       <c r="I366" s="205"/>
@@ -33678,7 +33668,7 @@
         <v>446</v>
       </c>
       <c r="H373" s="184" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="I373" s="184"/>
       <c r="J373" s="152"/>
@@ -33713,7 +33703,7 @@
         <v>446</v>
       </c>
       <c r="H374" s="184" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="I374" s="205"/>
       <c r="J374" s="205"/>
@@ -34189,7 +34179,7 @@
   </sheetPr>
   <dimension ref="A1:Q128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -34351,7 +34341,7 @@
         <v>89</v>
       </c>
       <c r="J11" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K11" s="256"/>
       <c r="L11" s="159"/>
@@ -34380,7 +34370,7 @@
         <v>135</v>
       </c>
       <c r="J12" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K12" s="258"/>
       <c r="L12" s="159"/>
@@ -34413,7 +34403,7 @@
         <v>294</v>
       </c>
       <c r="J13" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K13" s="260"/>
       <c r="L13" s="261"/>
@@ -34442,7 +34432,7 @@
         <v>29</v>
       </c>
       <c r="J14" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K14" s="266"/>
       <c r="L14" s="267"/>
@@ -34471,7 +34461,7 @@
         <v>295</v>
       </c>
       <c r="J15" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K15" s="272"/>
       <c r="L15" s="273"/>
@@ -34500,7 +34490,7 @@
         <v>296</v>
       </c>
       <c r="J16" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K16" s="272"/>
       <c r="L16" s="273"/>
@@ -34529,7 +34519,7 @@
         <v>94</v>
       </c>
       <c r="J17" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K17" s="258"/>
       <c r="L17" s="159"/>
@@ -34558,7 +34548,7 @@
         <v>35</v>
       </c>
       <c r="J18" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K18" s="277"/>
       <c r="L18" s="159"/>
@@ -34715,7 +34705,7 @@
         <v>92</v>
       </c>
       <c r="J23" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K23" s="258"/>
       <c r="L23" s="159"/>
@@ -34744,7 +34734,7 @@
         <v>92</v>
       </c>
       <c r="J24" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K24" s="258"/>
       <c r="L24" s="159"/>
@@ -34773,7 +34763,7 @@
         <v>92</v>
       </c>
       <c r="J25" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K25" s="258"/>
       <c r="L25" s="159"/>
@@ -34802,7 +34792,7 @@
         <v>92</v>
       </c>
       <c r="J26" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K26" s="258"/>
       <c r="L26" s="159"/>
@@ -34831,7 +34821,7 @@
         <v>92</v>
       </c>
       <c r="J27" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K27" s="258"/>
       <c r="L27" s="159"/>
@@ -34860,7 +34850,7 @@
         <v>31</v>
       </c>
       <c r="J28" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K28" s="258"/>
       <c r="L28" s="159"/>
@@ -34889,7 +34879,7 @@
         <v>35</v>
       </c>
       <c r="J29" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K29" s="277"/>
       <c r="L29" s="159"/>
@@ -34920,7 +34910,7 @@
         <v>203</v>
       </c>
       <c r="J30" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K30" s="277"/>
       <c r="L30" s="159"/>
@@ -34951,7 +34941,7 @@
         <v>164</v>
       </c>
       <c r="J31" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K31" s="292"/>
       <c r="L31" s="273"/>
@@ -34980,7 +34970,7 @@
         <v>165</v>
       </c>
       <c r="J32" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K32" s="292"/>
       <c r="L32" s="273"/>
@@ -35009,7 +34999,7 @@
         <v>165</v>
       </c>
       <c r="J33" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K33" s="292"/>
       <c r="L33" s="273"/>
@@ -35038,7 +35028,7 @@
         <v>163</v>
       </c>
       <c r="J34" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K34" s="292"/>
       <c r="L34" s="273"/>
@@ -35067,7 +35057,7 @@
         <v>166</v>
       </c>
       <c r="J35" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K35" s="292"/>
       <c r="L35" s="293"/>
@@ -35096,7 +35086,7 @@
         <v>166</v>
       </c>
       <c r="J36" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K36" s="292"/>
       <c r="L36" s="293"/>
@@ -35125,7 +35115,7 @@
         <v>42</v>
       </c>
       <c r="J37" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K37" s="292"/>
       <c r="L37" s="293"/>
@@ -35154,7 +35144,7 @@
         <v>42</v>
       </c>
       <c r="J38" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K38" s="292"/>
       <c r="L38" s="293"/>
@@ -35183,7 +35173,7 @@
         <v>42</v>
       </c>
       <c r="J39" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K39" s="292"/>
       <c r="L39" s="293"/>
@@ -35214,7 +35204,7 @@
         <v>165</v>
       </c>
       <c r="J40" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K40" s="292"/>
       <c r="L40" s="293"/>
@@ -35243,7 +35233,7 @@
         <v>165</v>
       </c>
       <c r="J41" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K41" s="292"/>
       <c r="L41" s="293"/>
@@ -35272,7 +35262,7 @@
         <v>167</v>
       </c>
       <c r="J42" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K42" s="292"/>
       <c r="L42" s="293"/>
@@ -35301,7 +35291,7 @@
         <v>167</v>
       </c>
       <c r="J43" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K43" s="292"/>
       <c r="L43" s="293"/>
@@ -35330,7 +35320,7 @@
         <v>46</v>
       </c>
       <c r="J44" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K44" s="296"/>
       <c r="L44" s="297"/>
@@ -35361,7 +35351,7 @@
         <v>209</v>
       </c>
       <c r="J45" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K45" s="241"/>
       <c r="L45" s="300"/>
@@ -35390,7 +35380,7 @@
         <v>207</v>
       </c>
       <c r="J46" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K46" s="241"/>
       <c r="L46" s="300"/>
@@ -35419,7 +35409,7 @@
         <v>204</v>
       </c>
       <c r="J47" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K47" s="241"/>
       <c r="L47" s="300"/>
@@ -35448,7 +35438,7 @@
         <v>204</v>
       </c>
       <c r="J48" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K48" s="241"/>
       <c r="L48" s="300"/>
@@ -35477,7 +35467,7 @@
         <v>204</v>
       </c>
       <c r="J49" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K49" s="241"/>
       <c r="L49" s="300"/>
@@ -35506,7 +35496,7 @@
         <v>204</v>
       </c>
       <c r="J50" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K50" s="241"/>
       <c r="L50" s="300"/>
@@ -35535,7 +35525,7 @@
         <v>204</v>
       </c>
       <c r="J51" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K51" s="241"/>
       <c r="L51" s="300"/>
@@ -35564,7 +35554,7 @@
         <v>204</v>
       </c>
       <c r="J52" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K52" s="241"/>
       <c r="L52" s="300"/>
@@ -35593,7 +35583,7 @@
         <v>204</v>
       </c>
       <c r="J53" s="256" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K53" s="241"/>
       <c r="L53" s="300"/>
